--- a/20_営業/12_OIC共通/TE030/T_TE030_CCD_019_Python共通基底クラス.xlsx
+++ b/20_営業/12_OIC共通/TE030/T_TE030_CCD_019_Python共通基底クラス.xlsx
@@ -5,11 +5,11 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\itoenfile\system\30.SCSK\89_SaaS対応\20_ERPCloud導入\30_テストフェーズ\40_開発残課題\16_業務日付更新\20_恒久対応\20_対応中\XXCCD019\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\acomsv01\障害対応\E_本稼動_19801～19900\E_本稼動_19878【会計】502bad gatewayエラー\20_成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8940"/>
+    <workbookView xWindow="0" yWindow="3000" windowWidth="23040" windowHeight="8940"/>
   </bookViews>
   <sheets>
     <sheet name="表紙" sheetId="2" r:id="rId1"/>
@@ -28,15 +28,17 @@
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ9)" sheetId="20" r:id="rId14"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ10)" sheetId="21" r:id="rId15"/>
     <sheet name="テスト仕様_テスト結果(テスト・シナリオ11)" sheetId="22" r:id="rId16"/>
-    <sheet name="不具合ログ" sheetId="7" r:id="rId17"/>
-    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId18"/>
+    <sheet name="テスト仕様_テスト結果(テスト・シナリオ12)" sheetId="23" r:id="rId17"/>
+    <sheet name="不具合ログ" sheetId="7" r:id="rId18"/>
+    <sheet name="未完了の課題と完了済みの課題" sheetId="8" r:id="rId19"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$20</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="3">テスト・シナリオ一覧!$A$1:$F$21</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">テスト仕様_データ・プロファイル!$A$1:$C$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'テスト仕様_テスト結果(テスト・シナリオ1)'!$A$1:$I$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'テスト仕様_テスト結果(テスト・シナリオ10)'!$A$1:$I$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="15">'テスト仕様_テスト結果(テスト・シナリオ11)'!$A$1:$I$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'テスト仕様_テスト結果(テスト・シナリオ12)'!$A$1:$I$47</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'テスト仕様_テスト結果(テスト・シナリオ2)'!$A$1:$I$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'テスト仕様_テスト結果(テスト・シナリオ3)'!$A$1:$I$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'テスト仕様_テスト結果(テスト・シナリオ4)'!$A$1:$I$50</definedName>
@@ -47,9 +49,9 @@
     <definedName name="_xlnm.Print_Area" localSheetId="13">'テスト仕様_テスト結果(テスト・シナリオ9)'!$A$1:$I$50</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">作成上の注意点!$A$1:$M$37</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">表紙!$A$1:$H$29</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$18</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="1">文書管理!$A$1:$I$19</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -59,7 +61,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="434">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1200" uniqueCount="453">
   <si>
     <t>株式会社伊藤園</t>
     <phoneticPr fontId="5"/>
@@ -3035,10 +3037,6 @@
     <phoneticPr fontId="3"/>
   </si>
   <si>
-    <t>Issue1.1</t>
-    <phoneticPr fontId="3"/>
-  </si>
-  <si>
     <t>8-16-1</t>
     <phoneticPr fontId="3"/>
   </si>
@@ -3279,18 +3277,116 @@
   <si>
     <t>8-22-3</t>
     <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>Issue1.2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK 細沼翔太</t>
+    <rPh sb="5" eb="9">
+      <t>ホソヌマショウタ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>E_本稼動_19878 502bad gatewayエラー対応</t>
+  </si>
+  <si>
+    <t>シナリオ12</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>テスト・シナリオ12</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>12-1</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OICエラー判定（サーバーエラー）</t>
+  </si>
+  <si>
+    <t>OICエラー判定（サーバーエラー）</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RESTAPIレスポンスのHTTPステータスコードに200を設定し、OICサーバーエラー判定処理を実行する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RESTAPIレスポンスのHTTPステータスコードに401を設定し、OICサーバーエラー判定処理を実行する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RESTAPIレスポンスのHTTPステータスコードに502を設定し、OICサーバーエラー判定処理を実行する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>RESTAPIレスポンスのHTTPステータスコードに504を設定し、OICサーバーエラー判定処理を実行する。</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12-2</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12-3</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>12-4</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OICサーバーエラー判定の確認【E_本稼動_19878対応の確認のために追加】</t>
+    <rPh sb="27" eb="29">
+      <t>タイオウ</t>
+    </rPh>
+    <rPh sb="30" eb="32">
+      <t>カクニン</t>
+    </rPh>
+    <rPh sb="36" eb="38">
+      <t>ツイカ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>左記のとおりであることを確認</t>
+    <rPh sb="0" eb="2">
+      <t>サキ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>カクニン</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>OK</t>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>SCSK細沼</t>
+    <rPh sb="4" eb="6">
+      <t>ホソヌマ</t>
+    </rPh>
+    <phoneticPr fontId="3"/>
+  </si>
+  <si>
+    <t>T_TE030_CCD_019_Python共通基底クラス_エビデンス(シナリオ12).xlsx</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="3">
     <numFmt numFmtId="176" formatCode="mmmm\ dd\,\ yyyy"/>
     <numFmt numFmtId="177" formatCode="mmm\ dd\ yyyy"/>
     <numFmt numFmtId="178" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3470,6 +3566,14 @@
       <family val="2"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FFFF66FF"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="major"/>
     </font>
   </fonts>
   <fills count="8">
@@ -4119,7 +4223,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="132">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -4453,6 +4557,9 @@
     <xf numFmtId="0" fontId="22" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -4494,6 +4601,7 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF66FF"/>
       <color rgb="FFC0C0C0"/>
       <color rgb="FF0000FF"/>
     </mruColors>
@@ -6944,6 +7052,731 @@
       <xdr:colOff>2447925</xdr:colOff>
       <xdr:row>164</xdr:row>
       <xdr:rowOff>24765</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="AutoShape 3"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="28575" y="30032325"/>
+          <a:ext cx="3400425" cy="462915"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 他に添付するエビデンスなどがあれば</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>         記述します。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing13.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>193</xdr:row>
+      <xdr:rowOff>167640</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="AutoShape 1"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="30870525"/>
+          <a:ext cx="7581900" cy="2663190"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.020作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト・シナリオ毎のテスト・ステップを記載して下さい。コンカレント・プログラムの場合は各プロセスの内部処理、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        画面の場合は各機能の内部処理で、結果が分岐しうる処理を網羅するようにして下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト内容」には、テスト・ステップ毎のテスト内容を記載して下さい。また、記載の上の注意は、以下を参照して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・処理が分岐しうる条件を、カラム名単位で詳細に記載して下さい。その際、カラム名は、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               検証のポイントとなるカラムを選択して記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>　                 例：○○フラグ＝'Y'によって抽出対象となる事を確認</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・データ取得ロジック(SELECT文)を確認する場合、SELECTできないケースも記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>             ・１データを複数のテスト・ステップで使用する場合、以下の例を参考に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                   例：シナリオX-Xと同時検証</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 「テスト対象機能」には、「MD.050機能拡張に当っての機能設計書」（または「MD.070 機能拡張にあたっての</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>        技術設計書」）で定義される「機能番号」および「機能名」を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 画面テストの際に画面から入力する値は、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1200"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: コンカレント、共通関数のテスト実施の際に使用するパラメータは、「テスト内容」欄に記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>194</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>1171575</xdr:colOff>
+      <xdr:row>211</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="AutoShape 2"/>
+        <xdr:cNvSpPr>
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="276225" y="33632775"/>
+          <a:ext cx="7581900" cy="2863215"/>
+        </a:xfrm>
+        <a:prstGeom prst="foldedCorner">
+          <a:avLst>
+            <a:gd name="adj" fmla="val 12500"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="FFFF00" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="13"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:solidFill>
+            <a:srgbClr xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+          </a:solidFill>
+          <a:round/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+        <a:effectLst/>
+        <a:extLst>
+          <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+            <a14:hiddenEffects xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+              <a:effectLst>
+                <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                  <a:srgbClr val="808080"/>
+                </a:outerShdw>
+              </a:effectLst>
+            </a14:hiddenEffects>
+          </a:ext>
+        </a:extLst>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="18288" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>【TE.070作成時の注意点】</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: テスト結果表に単体テスト結果を記載する際には、次のガイドラインに従います。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            1）予想結果: 成否判定が可能な予想される結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>                    例：○○フラグ＝'Y'により抽出対象となる、××IDが不一致のため更新対象外となる</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            2）実際の結果: 実際にテスト・ステップで定義された内容でテストを実施した際の、</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>               予想結果に対応する実際の結果または出力を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            3）判定: 予想結果と実際の結果を比較し、テストの成否を判定した結果を以下の3つの記号で記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・○: テスト成功</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・×: テスト失敗</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            　　・－: 対象外（前ステップでテストが失敗し、テストが実施できなかったような場合に使用します。）</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            4）テスター: テスト実施者名を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>            5）実施日: テスト実施日の年月日を記載します。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: パフォーマンス・テスト用のテスト・シナリオの場合、「予想結果」、「実際の結果」に処理時間を記載して下さい。</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:lnSpc>
+              <a:spcPts val="1300"/>
+            </a:lnSpc>
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="ja-JP" altLang="en-US" sz="1100" b="0" i="0" u="none" strike="noStrike" baseline="0">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+              <a:latin typeface="ＭＳ Ｐゴシック"/>
+              <a:ea typeface="ＭＳ Ｐゴシック"/>
+            </a:rPr>
+            <a:t>ノート: 再テストの場合、行を挿入して再テスト結果を記載してください。</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData fPrintsWithSheet="0"/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="absolute">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>173</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2447925</xdr:colOff>
+      <xdr:row>176</xdr:row>
+      <xdr:rowOff>43815</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -13100,7 +13933,7 @@
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="10.75" style="2" customWidth="1"/>
@@ -13425,7 +14258,7 @@
     <col min="16134" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:8" ht="12" customHeight="1">
+    <row r="3" spans="2:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
@@ -13433,7 +14266,7 @@
       <c r="F3" s="1"/>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="2:8" ht="6" customHeight="1">
+    <row r="4" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -13442,7 +14275,7 @@
       <c r="G4" s="1"/>
       <c r="H4" s="1"/>
     </row>
-    <row r="5" spans="2:8" ht="21">
+    <row r="5" spans="2:8" ht="21" x14ac:dyDescent="0.15">
       <c r="B5" s="3"/>
       <c r="C5" s="4"/>
       <c r="D5" s="4"/>
@@ -13451,67 +14284,67 @@
       <c r="G5" s="4"/>
       <c r="H5" s="4"/>
     </row>
-    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1">
-      <c r="B6" s="121" t="s">
+    <row r="6" spans="2:8" ht="64.150000000000006" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B6" s="122" t="s">
         <v>65</v>
       </c>
-      <c r="C6" s="121"/>
-      <c r="D6" s="121"/>
-      <c r="E6" s="121"/>
-      <c r="F6" s="121"/>
-      <c r="G6" s="121"/>
-      <c r="H6" s="121"/>
-    </row>
-    <row r="7" spans="2:8" ht="6" customHeight="1">
+      <c r="C6" s="122"/>
+      <c r="D6" s="122"/>
+      <c r="E6" s="122"/>
+      <c r="F6" s="122"/>
+      <c r="G6" s="122"/>
+      <c r="H6" s="122"/>
+    </row>
+    <row r="7" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="5"/>
     </row>
-    <row r="8" spans="2:8" ht="6" customHeight="1">
+    <row r="8" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B8" s="5"/>
     </row>
-    <row r="9" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B9" s="122" t="s">
+    <row r="9" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B9" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="C9" s="122"/>
-      <c r="D9" s="122"/>
-      <c r="E9" s="122"/>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122"/>
-      <c r="H9" s="122"/>
-    </row>
-    <row r="10" spans="2:8" ht="6" customHeight="1">
+      <c r="C9" s="123"/>
+      <c r="D9" s="123"/>
+      <c r="E9" s="123"/>
+      <c r="F9" s="123"/>
+      <c r="G9" s="123"/>
+      <c r="H9" s="123"/>
+    </row>
+    <row r="10" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="5"/>
     </row>
-    <row r="11" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B11" s="122" t="s">
+    <row r="11" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B11" s="123" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="122"/>
-      <c r="D11" s="122"/>
-      <c r="E11" s="122"/>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122"/>
-      <c r="H11" s="122"/>
-    </row>
-    <row r="12" spans="2:8" ht="6" customHeight="1"/>
-    <row r="13" spans="2:8" ht="58.5" customHeight="1">
-      <c r="B13" s="122" t="s">
+      <c r="C11" s="123"/>
+      <c r="D11" s="123"/>
+      <c r="E11" s="123"/>
+      <c r="F11" s="123"/>
+      <c r="G11" s="123"/>
+      <c r="H11" s="123"/>
+    </row>
+    <row r="12" spans="2:8" ht="6" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="2:8" ht="58.5" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="B13" s="123" t="s">
         <v>78</v>
       </c>
-      <c r="C13" s="122"/>
-      <c r="D13" s="122"/>
-      <c r="E13" s="122"/>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122"/>
-      <c r="H13" s="122"/>
-    </row>
-    <row r="14" spans="2:8">
+      <c r="C13" s="123"/>
+      <c r="D13" s="123"/>
+      <c r="E13" s="123"/>
+      <c r="F13" s="123"/>
+      <c r="G13" s="123"/>
+      <c r="H13" s="123"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B14" s="6"/>
     </row>
-    <row r="15" spans="2:8">
+    <row r="15" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B15" s="6"/>
     </row>
-    <row r="16" spans="2:8">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B16" s="6" t="s">
         <v>1</v>
       </c>
@@ -13519,11 +14352,11 @@
         <v>74</v>
       </c>
     </row>
-    <row r="17" spans="1:8" ht="6" customHeight="1">
+    <row r="17" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="6"/>
       <c r="C17" s="6"/>
     </row>
-    <row r="18" spans="1:8">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B18" s="6" t="s">
         <v>2</v>
       </c>
@@ -13531,23 +14364,23 @@
         <v>44771</v>
       </c>
     </row>
-    <row r="19" spans="1:8" ht="6" customHeight="1">
+    <row r="19" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="6"/>
       <c r="C19" s="8"/>
     </row>
-    <row r="20" spans="1:8">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B20" s="6" t="s">
         <v>3</v>
       </c>
       <c r="C20" s="7">
-        <v>45014</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="6" customHeight="1">
+        <v>45384</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B21" s="6"/>
       <c r="C21" s="6"/>
     </row>
-    <row r="22" spans="1:8">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B22" s="6" t="s">
         <v>71</v>
       </c>
@@ -13555,25 +14388,25 @@
         <v>369</v>
       </c>
     </row>
-    <row r="23" spans="1:8" ht="6" customHeight="1">
+    <row r="23" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B23" s="6"/>
       <c r="C23" s="6"/>
     </row>
-    <row r="24" spans="1:8">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B24" s="6" t="s">
         <v>4</v>
       </c>
       <c r="C24" s="6" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B25" s="6"/>
     </row>
-    <row r="26" spans="1:8">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B26" s="6"/>
     </row>
-    <row r="28" spans="1:8" ht="12" customHeight="1">
+    <row r="28" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A28" s="9"/>
       <c r="B28" s="9"/>
       <c r="C28" s="10"/>
@@ -13585,7 +14418,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="29" spans="1:8" ht="12" customHeight="1">
+    <row r="29" spans="1:8" ht="12" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A29" s="9"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
@@ -13623,7 +14456,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -14203,7 +15036,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -14214,35 +15047,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>270</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -14268,7 +15101,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>310</v>
@@ -14295,7 +15128,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>159</v>
@@ -14322,7 +15155,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>130</v>
@@ -14349,7 +15182,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>131</v>
@@ -14376,7 +15209,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64" t="s">
         <v>160</v>
@@ -14403,7 +15236,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64" t="s">
         <v>283</v>
@@ -14430,7 +15263,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -14440,7 +15273,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -14450,7 +15283,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -14460,7 +15293,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -14470,7 +15303,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -14480,7 +15313,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -14490,7 +15323,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -14500,7 +15333,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -14510,7 +15343,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -14521,7 +15354,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -14532,7 +15365,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -14542,7 +15375,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -14552,7 +15385,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -14563,7 +15396,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -14574,7 +15407,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -14584,7 +15417,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -14594,7 +15427,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -14604,7 +15437,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -14614,7 +15447,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -14624,7 +15457,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -14634,7 +15467,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -14644,7 +15477,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -14654,7 +15487,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -14664,7 +15497,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -14674,7 +15507,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -14684,7 +15517,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -14694,7 +15527,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -14704,7 +15537,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -14714,7 +15547,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>336</v>
       </c>
@@ -14726,7 +15559,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -14736,7 +15569,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -14746,7 +15579,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -14756,7 +15589,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -14792,7 +15625,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -15372,7 +16205,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -15383,35 +16216,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>271</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -15437,7 +16270,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>132</v>
@@ -15464,7 +16297,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>311</v>
@@ -15489,7 +16322,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>133</v>
@@ -15516,7 +16349,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>247</v>
@@ -15541,7 +16374,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64" t="s">
         <v>248</v>
@@ -15566,7 +16399,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64" t="s">
         <v>249</v>
@@ -15591,7 +16424,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>286</v>
       </c>
@@ -15617,7 +16450,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -15627,7 +16460,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -15637,7 +16470,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -15647,7 +16480,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -15657,7 +16490,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -15667,7 +16500,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -15677,7 +16510,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -15687,7 +16520,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -15698,7 +16531,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -15709,7 +16542,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -15719,7 +16552,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -15729,7 +16562,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -15740,7 +16573,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -15751,7 +16584,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -15761,7 +16594,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -15771,7 +16604,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -15781,7 +16614,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -15791,7 +16624,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -15801,7 +16634,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -15811,7 +16644,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -15821,7 +16654,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -15831,7 +16664,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -15841,7 +16674,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -15851,7 +16684,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -15861,7 +16694,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -15871,7 +16704,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -15881,7 +16714,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -15891,7 +16724,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>333</v>
       </c>
@@ -15903,7 +16736,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -15913,7 +16746,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -15923,7 +16756,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -15933,7 +16766,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -15945,7 +16778,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
-  <dataValidations count="1">
+  <dataValidations disablePrompts="1" count="1">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G39">
       <formula1>"OK,NG"</formula1>
     </dataValidation>
@@ -15969,7 +16802,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -16549,7 +17382,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -16560,35 +17393,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>272</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -16614,7 +17447,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>161</v>
@@ -16641,7 +17474,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>164</v>
@@ -16666,7 +17499,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>165</v>
@@ -16691,7 +17524,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>168</v>
@@ -16718,7 +17551,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64" t="s">
         <v>169</v>
@@ -16743,7 +17576,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64" t="s">
         <v>178</v>
@@ -16768,7 +17601,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>179</v>
       </c>
@@ -16792,7 +17625,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21">
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B18" s="64" t="s">
         <v>288</v>
       </c>
@@ -16818,7 +17651,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -16828,7 +17661,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -16838,7 +17671,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -16848,7 +17681,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -16858,7 +17691,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -16868,7 +17701,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -16878,7 +17711,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -16889,7 +17722,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -16900,7 +17733,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -16910,7 +17743,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -16920,7 +17753,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -16931,7 +17764,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -16942,7 +17775,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -16952,7 +17785,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -16962,7 +17795,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -16972,7 +17805,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -16982,7 +17815,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -16992,7 +17825,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -17002,7 +17835,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -17012,7 +17845,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -17022,7 +17855,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -17032,7 +17865,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -17042,7 +17875,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -17052,7 +17885,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -17062,7 +17895,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -17072,7 +17905,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -17082,7 +17915,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>333</v>
       </c>
@@ -17094,7 +17927,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -17104,7 +17937,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -17114,7 +17947,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -17124,7 +17957,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -17160,7 +17993,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -17740,7 +18573,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -17751,35 +18584,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>273</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -17805,7 +18638,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>181</v>
@@ -17832,7 +18665,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>186</v>
@@ -17857,7 +18690,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>187</v>
@@ -17882,7 +18715,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>188</v>
@@ -17909,7 +18742,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64" t="s">
         <v>189</v>
@@ -17934,7 +18767,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64" t="s">
         <v>190</v>
@@ -17959,7 +18792,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5">
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>192</v>
       </c>
@@ -17985,7 +18818,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64" t="s">
         <v>193</v>
       </c>
@@ -18009,7 +18842,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B19" s="64" t="s">
         <v>194</v>
       </c>
@@ -18033,7 +18866,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B20" s="64" t="s">
         <v>202</v>
       </c>
@@ -18059,7 +18892,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="64" t="s">
         <v>203</v>
       </c>
@@ -18083,7 +18916,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="21">
+    <row r="22" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B22" s="64" t="s">
         <v>198</v>
       </c>
@@ -18107,7 +18940,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21">
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B23" s="64" t="s">
         <v>204</v>
       </c>
@@ -18131,7 +18964,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="31.5">
+    <row r="24" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B24" s="64" t="s">
         <v>199</v>
       </c>
@@ -18157,7 +18990,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="64" t="s">
         <v>200</v>
@@ -18182,7 +19015,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="26" spans="1:9" ht="21">
+    <row r="26" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="64" t="s">
         <v>201</v>
@@ -18207,7 +19040,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="27" spans="1:9" ht="31.5">
+    <row r="27" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B27" s="64" t="s">
         <v>205</v>
       </c>
@@ -18233,7 +19066,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="64" t="s">
         <v>206</v>
       </c>
@@ -18257,7 +19090,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="29" spans="1:9" ht="21">
+    <row r="29" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="64" t="s">
         <v>207</v>
@@ -18282,7 +19115,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="30" spans="1:9" ht="21">
+    <row r="30" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="64" t="s">
         <v>264</v>
@@ -18307,7 +19140,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="31.5">
+    <row r="31" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A31" s="37"/>
       <c r="B31" s="64" t="s">
         <v>208</v>
@@ -18334,7 +19167,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="64" t="s">
         <v>209</v>
       </c>
@@ -18358,7 +19191,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="21">
+    <row r="33" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B33" s="64" t="s">
         <v>210</v>
       </c>
@@ -18382,7 +19215,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="21">
+    <row r="34" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B34" s="64" t="s">
         <v>211</v>
       </c>
@@ -18406,7 +19239,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="31.5">
+    <row r="35" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B35" s="64" t="s">
         <v>212</v>
       </c>
@@ -18432,7 +19265,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="36" spans="2:9">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B36" s="64" t="s">
         <v>213</v>
       </c>
@@ -18456,7 +19289,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="21">
+    <row r="37" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B37" s="64" t="s">
         <v>214</v>
       </c>
@@ -18480,7 +19313,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="31.5">
+    <row r="38" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B38" s="64" t="s">
         <v>215</v>
       </c>
@@ -18506,7 +19339,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="39" spans="2:9">
+    <row r="39" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B39" s="64" t="s">
         <v>216</v>
       </c>
@@ -18530,7 +19363,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="21">
+    <row r="40" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B40" s="64" t="s">
         <v>217</v>
       </c>
@@ -18554,7 +19387,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="31.5">
+    <row r="41" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B41" s="64" t="s">
         <v>218</v>
       </c>
@@ -18580,7 +19413,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="42" spans="2:9">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B42" s="64" t="s">
         <v>219</v>
       </c>
@@ -18604,7 +19437,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="43" spans="2:9" ht="21">
+    <row r="43" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B43" s="64" t="s">
         <v>220</v>
       </c>
@@ -18628,7 +19461,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="44" spans="2:9" ht="21">
+    <row r="44" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B44" s="64" t="s">
         <v>221</v>
       </c>
@@ -18652,7 +19485,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="45" spans="2:9" ht="31.5">
+    <row r="45" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B45" s="64" t="s">
         <v>223</v>
       </c>
@@ -18678,7 +19511,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="46" spans="2:9">
+    <row r="46" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B46" s="64" t="s">
         <v>224</v>
       </c>
@@ -18702,7 +19535,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="47" spans="2:9" ht="21">
+    <row r="47" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B47" s="64" t="s">
         <v>225</v>
       </c>
@@ -18726,7 +19559,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="48" spans="2:9" ht="31.5">
+    <row r="48" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B48" s="64" t="s">
         <v>226</v>
       </c>
@@ -18752,7 +19585,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="64" t="s">
         <v>227</v>
       </c>
@@ -18776,7 +19609,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="50" spans="2:9" ht="21">
+    <row r="50" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B50" s="64" t="s">
         <v>228</v>
       </c>
@@ -18800,7 +19633,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="51" spans="2:9" ht="21">
+    <row r="51" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B51" s="64" t="s">
         <v>229</v>
       </c>
@@ -18824,7 +19657,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="52" spans="2:9" ht="31.5">
+    <row r="52" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B52" s="64" t="s">
         <v>251</v>
       </c>
@@ -18850,7 +19683,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="53" spans="2:9">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B53" s="64" t="s">
         <v>230</v>
       </c>
@@ -18874,7 +19707,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="54" spans="2:9" ht="21">
+    <row r="54" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B54" s="64" t="s">
         <v>252</v>
       </c>
@@ -18898,7 +19731,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="55" spans="2:9" ht="31.5">
+    <row r="55" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B55" s="64" t="s">
         <v>253</v>
       </c>
@@ -18924,7 +19757,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="56" spans="2:9">
+    <row r="56" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B56" s="64" t="s">
         <v>254</v>
       </c>
@@ -18948,7 +19781,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="21">
+    <row r="57" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B57" s="64" t="s">
         <v>255</v>
       </c>
@@ -18972,7 +19805,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="21">
+    <row r="58" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B58" s="64" t="s">
         <v>256</v>
       </c>
@@ -18996,7 +19829,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="31.5">
+    <row r="59" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B59" s="64" t="s">
         <v>290</v>
       </c>
@@ -19022,12 +19855,12 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="60" spans="2:9" ht="31.5">
+    <row r="60" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B60" s="64" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="C60" s="51" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D60" s="51" t="s">
         <v>183</v>
@@ -19048,12 +19881,12 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="61" spans="2:9">
+    <row r="61" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B61" s="64" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="C61" s="51" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="D61" s="51"/>
       <c r="E61" s="51" t="s">
@@ -19072,16 +19905,16 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="62" spans="2:9" ht="21">
+    <row r="62" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B62" s="64" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="C62" s="51" t="s">
         <v>184</v>
       </c>
       <c r="D62" s="51"/>
       <c r="E62" s="51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F62" s="51" t="s">
         <v>298</v>
@@ -19096,12 +19929,12 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="63" spans="2:9" ht="31.5">
+    <row r="63" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B63" s="64" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="C63" s="51" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D63" s="51" t="s">
         <v>183</v>
@@ -19122,9 +19955,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="64" spans="2:9">
+    <row r="64" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B64" s="64" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="C64" s="119" t="s">
         <v>108</v>
@@ -19146,9 +19979,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="65" spans="2:9" ht="21">
+    <row r="65" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B65" s="64" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="C65" s="119" t="s">
         <v>144</v>
@@ -19170,9 +20003,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="21">
+    <row r="66" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B66" s="64" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="C66" s="51" t="s">
         <v>145</v>
@@ -19194,12 +20027,12 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="31.5">
+    <row r="67" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B67" s="64" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="C67" s="51" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D67" s="51" t="s">
         <v>183</v>
@@ -19220,9 +20053,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="68" spans="2:9">
+    <row r="68" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B68" s="64" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="C68" s="119" t="s">
         <v>108</v>
@@ -19244,9 +20077,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="21">
+    <row r="69" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B69" s="64" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="C69" s="119" t="s">
         <v>144</v>
@@ -19268,9 +20101,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="70" spans="2:9" ht="21">
+    <row r="70" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B70" s="64" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="C70" s="51" t="s">
         <v>145</v>
@@ -19292,12 +20125,12 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="71" spans="2:9" ht="31.5">
+    <row r="71" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B71" s="64" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="C71" s="51" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D71" s="51" t="s">
         <v>183</v>
@@ -19318,9 +20151,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="72" spans="2:9">
+    <row r="72" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B72" s="64" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="C72" s="119" t="s">
         <v>108</v>
@@ -19342,9 +20175,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="21">
+    <row r="73" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B73" s="64" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="C73" s="119" t="s">
         <v>144</v>
@@ -19366,9 +20199,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="21">
+    <row r="74" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B74" s="64" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="C74" s="51" t="s">
         <v>145</v>
@@ -19390,12 +20223,12 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="75" spans="2:9" ht="31.5">
+    <row r="75" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B75" s="64" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="C75" s="51" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="D75" s="51" t="s">
         <v>183</v>
@@ -19416,9 +20249,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="76" spans="2:9">
+    <row r="76" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B76" s="64" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="C76" s="51" t="s">
         <v>108</v>
@@ -19440,9 +20273,9 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="77" spans="2:9" ht="21">
+    <row r="77" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B77" s="64" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C77" s="51" t="s">
         <v>184</v>
@@ -19464,18 +20297,18 @@
         <v>45015</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="31.5">
+    <row r="78" spans="2:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B78" s="64" t="s">
+        <v>421</v>
+      </c>
+      <c r="C78" s="51" t="s">
         <v>422</v>
       </c>
-      <c r="C78" s="51" t="s">
+      <c r="D78" s="51" t="s">
         <v>423</v>
       </c>
-      <c r="D78" s="51" t="s">
+      <c r="E78" s="51" t="s">
         <v>424</v>
-      </c>
-      <c r="E78" s="51" t="s">
-        <v>425</v>
       </c>
       <c r="F78" s="51" t="s">
         <v>298</v>
@@ -19490,12 +20323,12 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="79" spans="2:9">
+    <row r="79" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B79" s="64" t="s">
+        <v>425</v>
+      </c>
+      <c r="C79" s="51" t="s">
         <v>426</v>
-      </c>
-      <c r="C79" s="51" t="s">
-        <v>427</v>
       </c>
       <c r="D79" s="51"/>
       <c r="E79" s="51" t="s">
@@ -19514,16 +20347,16 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="21">
+    <row r="80" spans="2:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B80" s="64" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="C80" s="51" t="s">
         <v>184</v>
       </c>
       <c r="D80" s="51"/>
       <c r="E80" s="51" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="F80" s="51" t="s">
         <v>298</v>
@@ -19538,15 +20371,15 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="81" spans="1:9" ht="31.5">
+    <row r="81" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B81" s="64" t="s">
+        <v>428</v>
+      </c>
+      <c r="C81" s="51" t="s">
         <v>429</v>
       </c>
-      <c r="C81" s="51" t="s">
-        <v>430</v>
-      </c>
       <c r="D81" s="51" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E81" s="51" t="s">
         <v>143</v>
@@ -19564,12 +20397,12 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B82" s="64" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="C82" s="119" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="D82" s="51"/>
       <c r="E82" s="51" t="s">
@@ -19588,9 +20421,9 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="83" spans="1:9" ht="21">
+    <row r="83" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B83" s="64" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C83" s="119" t="s">
         <v>144</v>
@@ -19612,9 +20445,9 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="84" spans="1:9" ht="21">
+    <row r="84" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B84" s="64" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="C84" s="51" t="s">
         <v>145</v>
@@ -19636,7 +20469,7 @@
         <v>45016</v>
       </c>
     </row>
-    <row r="85" spans="1:9" ht="14.25" thickBot="1">
+    <row r="85" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B85" s="72"/>
       <c r="C85" s="47"/>
       <c r="D85" s="47"/>
@@ -19646,7 +20479,7 @@
       <c r="H85" s="47"/>
       <c r="I85" s="117"/>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B86" s="34"/>
       <c r="C86" s="34"/>
       <c r="D86" s="34"/>
@@ -19656,7 +20489,7 @@
       <c r="H86" s="34"/>
       <c r="I86" s="34"/>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B87" s="34"/>
       <c r="C87" s="34"/>
       <c r="D87" s="34"/>
@@ -19666,7 +20499,7 @@
       <c r="H87" s="34"/>
       <c r="I87" s="34"/>
     </row>
-    <row r="88" spans="1:9" ht="6" customHeight="1">
+    <row r="88" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A88" s="28"/>
       <c r="B88" s="28"/>
       <c r="C88" s="28"/>
@@ -19676,7 +20509,7 @@
       <c r="G88" s="34"/>
       <c r="H88" s="34"/>
     </row>
-    <row r="89" spans="1:9" ht="14.25">
+    <row r="89" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A89" s="32" t="s">
         <v>47</v>
       </c>
@@ -19686,7 +20519,7 @@
       <c r="H89" s="34"/>
       <c r="I89" s="34"/>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B90" s="34"/>
       <c r="C90" s="34"/>
       <c r="D90" s="34"/>
@@ -19696,7 +20529,7 @@
       <c r="H90" s="34"/>
       <c r="I90" s="34"/>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B91" s="38" t="s">
         <v>333</v>
       </c>
@@ -19708,9 +20541,9 @@
       <c r="H91" s="34"/>
       <c r="I91" s="34"/>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B92" s="38" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C92" s="34"/>
       <c r="D92" s="34"/>
@@ -19720,7 +20553,7 @@
       <c r="H92" s="34"/>
       <c r="I92" s="34"/>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B93" s="34"/>
       <c r="C93" s="34"/>
       <c r="D93" s="34"/>
@@ -19730,7 +20563,7 @@
       <c r="H93" s="34"/>
       <c r="I93" s="34"/>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B94" s="34"/>
       <c r="C94" s="34"/>
       <c r="D94" s="34"/>
@@ -19740,7 +20573,7 @@
       <c r="H94" s="34"/>
       <c r="I94" s="34"/>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B95" s="34"/>
       <c r="C95" s="34"/>
       <c r="D95" s="34"/>
@@ -19776,7 +20609,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -20356,7 +21189,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -20367,35 +21200,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>274</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -20421,7 +21254,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>259</v>
@@ -20448,7 +21281,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>260</v>
@@ -20473,7 +21306,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64"/>
       <c r="C13" s="51"/>
@@ -20484,7 +21317,7 @@
       <c r="H13" s="39"/>
       <c r="I13" s="78"/>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64"/>
       <c r="C14" s="51"/>
@@ -20495,7 +21328,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="78"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64"/>
       <c r="C15" s="51"/>
@@ -20506,7 +21339,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64"/>
       <c r="C16" s="51"/>
@@ -20517,7 +21350,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -20527,7 +21360,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="51"/>
       <c r="D18" s="51"/>
@@ -20537,7 +21370,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -20547,7 +21380,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -20557,7 +21390,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -20567,7 +21400,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -20577,7 +21410,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -20587,7 +21420,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -20597,7 +21430,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -20608,7 +21441,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -20619,7 +21452,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -20629,7 +21462,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -20639,7 +21472,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -20650,7 +21483,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -20661,7 +21494,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -20671,7 +21504,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -20681,7 +21514,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -20691,7 +21524,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -20701,7 +21534,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -20711,7 +21544,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -20721,7 +21554,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -20731,7 +21564,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -20741,7 +21574,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -20751,7 +21584,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -20761,7 +21594,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -20771,7 +21604,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -20781,7 +21614,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -20791,7 +21624,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -20801,7 +21634,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>333</v>
       </c>
@@ -20813,7 +21646,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -20823,7 +21656,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -20833,7 +21666,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -20843,7 +21676,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -20879,7 +21712,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -21459,7 +22292,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -21470,35 +22303,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -21524,7 +22357,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>346</v>
@@ -21551,7 +22384,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>347</v>
@@ -21578,7 +22411,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>370</v>
@@ -21605,7 +22438,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>371</v>
@@ -21632,7 +22465,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64"/>
       <c r="C15" s="51"/>
@@ -21643,7 +22476,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64"/>
       <c r="C16" s="51"/>
@@ -21654,7 +22487,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -21664,7 +22497,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -21674,7 +22507,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -21684,7 +22517,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -21694,7 +22527,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -21704,7 +22537,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -21714,7 +22547,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -21724,7 +22557,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -21734,7 +22567,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -21745,7 +22578,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -21756,7 +22589,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -21766,7 +22599,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -21776,7 +22609,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -21787,7 +22620,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -21798,7 +22631,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -21808,7 +22641,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -21818,7 +22651,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -21828,7 +22661,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -21838,7 +22671,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -21848,7 +22681,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -21858,7 +22691,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -21868,7 +22701,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -21878,7 +22711,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -21888,7 +22721,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -21898,7 +22731,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -21908,7 +22741,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -21918,7 +22751,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -21928,7 +22761,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -21938,7 +22771,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>333</v>
       </c>
@@ -21950,7 +22783,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -21960,7 +22793,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -21970,7 +22803,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -21980,7 +22813,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -22016,7 +22849,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -22596,7 +23429,7 @@
     <col min="16138" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -22607,35 +23440,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>348</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -22661,7 +23494,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="52.5">
+    <row r="11" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>366</v>
@@ -22688,7 +23521,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>385</v>
@@ -22711,7 +23544,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="52.5">
+    <row r="13" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>349</v>
@@ -22738,7 +23571,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="31.5">
+    <row r="14" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>367</v>
@@ -22761,7 +23594,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="52.5">
+    <row r="15" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64" t="s">
         <v>359</v>
@@ -22788,7 +23621,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="31.5">
+    <row r="16" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64" t="s">
         <v>368</v>
@@ -22811,7 +23644,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="31.5">
+    <row r="17" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A17" s="37"/>
       <c r="B17" s="64" t="s">
         <v>362</v>
@@ -22838,7 +23671,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="21">
+    <row r="18" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B18" s="64" t="s">
         <v>373</v>
       </c>
@@ -22864,7 +23697,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="21">
+    <row r="19" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B19" s="64" t="s">
         <v>374</v>
       </c>
@@ -22890,7 +23723,7 @@
         <v>44874</v>
       </c>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -22900,7 +23733,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -22910,7 +23743,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -22920,7 +23753,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -22930,7 +23763,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -22940,7 +23773,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -22951,7 +23784,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -22962,7 +23795,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -22972,7 +23805,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -22982,7 +23815,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -22993,7 +23826,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -23004,7 +23837,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -23014,7 +23847,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -23024,7 +23857,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -23034,7 +23867,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -23044,7 +23877,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -23054,7 +23887,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -23064,7 +23897,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -23074,7 +23907,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -23084,7 +23917,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -23094,7 +23927,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -23104,7 +23937,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -23114,7 +23947,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -23124,7 +23957,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -23134,7 +23967,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -23144,7 +23977,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>333</v>
       </c>
@@ -23156,7 +23989,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -23166,7 +23999,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -23176,7 +24009,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -23186,7 +24019,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -23212,12 +24045,1118 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr>
+    <tabColor rgb="FFFF66FF"/>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:I46"/>
+  <sheetViews>
+    <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="10" topLeftCell="A11" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
+    <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
+    <col min="3" max="3" width="40.125" style="27" customWidth="1"/>
+    <col min="4" max="4" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="21.625" style="27" customWidth="1"/>
+    <col min="7" max="7" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.125" style="27" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="27" customWidth="1"/>
+    <col min="10" max="256" width="9" style="27"/>
+    <col min="257" max="257" width="3.125" style="27" customWidth="1"/>
+    <col min="258" max="258" width="9.75" style="27" customWidth="1"/>
+    <col min="259" max="259" width="40.125" style="27" customWidth="1"/>
+    <col min="260" max="260" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="261" max="262" width="21.625" style="27" customWidth="1"/>
+    <col min="263" max="263" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="264" max="264" width="10.125" style="27" customWidth="1"/>
+    <col min="265" max="265" width="11.625" style="27" customWidth="1"/>
+    <col min="266" max="512" width="9" style="27"/>
+    <col min="513" max="513" width="3.125" style="27" customWidth="1"/>
+    <col min="514" max="514" width="9.75" style="27" customWidth="1"/>
+    <col min="515" max="515" width="40.125" style="27" customWidth="1"/>
+    <col min="516" max="516" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="517" max="518" width="21.625" style="27" customWidth="1"/>
+    <col min="519" max="519" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="520" max="520" width="10.125" style="27" customWidth="1"/>
+    <col min="521" max="521" width="11.625" style="27" customWidth="1"/>
+    <col min="522" max="768" width="9" style="27"/>
+    <col min="769" max="769" width="3.125" style="27" customWidth="1"/>
+    <col min="770" max="770" width="9.75" style="27" customWidth="1"/>
+    <col min="771" max="771" width="40.125" style="27" customWidth="1"/>
+    <col min="772" max="772" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="773" max="774" width="21.625" style="27" customWidth="1"/>
+    <col min="775" max="775" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="776" max="776" width="10.125" style="27" customWidth="1"/>
+    <col min="777" max="777" width="11.625" style="27" customWidth="1"/>
+    <col min="778" max="1024" width="9" style="27"/>
+    <col min="1025" max="1025" width="3.125" style="27" customWidth="1"/>
+    <col min="1026" max="1026" width="9.75" style="27" customWidth="1"/>
+    <col min="1027" max="1027" width="40.125" style="27" customWidth="1"/>
+    <col min="1028" max="1028" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1029" max="1030" width="21.625" style="27" customWidth="1"/>
+    <col min="1031" max="1031" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1032" max="1032" width="10.125" style="27" customWidth="1"/>
+    <col min="1033" max="1033" width="11.625" style="27" customWidth="1"/>
+    <col min="1034" max="1280" width="9" style="27"/>
+    <col min="1281" max="1281" width="3.125" style="27" customWidth="1"/>
+    <col min="1282" max="1282" width="9.75" style="27" customWidth="1"/>
+    <col min="1283" max="1283" width="40.125" style="27" customWidth="1"/>
+    <col min="1284" max="1284" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1285" max="1286" width="21.625" style="27" customWidth="1"/>
+    <col min="1287" max="1287" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1288" max="1288" width="10.125" style="27" customWidth="1"/>
+    <col min="1289" max="1289" width="11.625" style="27" customWidth="1"/>
+    <col min="1290" max="1536" width="9" style="27"/>
+    <col min="1537" max="1537" width="3.125" style="27" customWidth="1"/>
+    <col min="1538" max="1538" width="9.75" style="27" customWidth="1"/>
+    <col min="1539" max="1539" width="40.125" style="27" customWidth="1"/>
+    <col min="1540" max="1540" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1541" max="1542" width="21.625" style="27" customWidth="1"/>
+    <col min="1543" max="1543" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1544" max="1544" width="10.125" style="27" customWidth="1"/>
+    <col min="1545" max="1545" width="11.625" style="27" customWidth="1"/>
+    <col min="1546" max="1792" width="9" style="27"/>
+    <col min="1793" max="1793" width="3.125" style="27" customWidth="1"/>
+    <col min="1794" max="1794" width="9.75" style="27" customWidth="1"/>
+    <col min="1795" max="1795" width="40.125" style="27" customWidth="1"/>
+    <col min="1796" max="1796" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="1797" max="1798" width="21.625" style="27" customWidth="1"/>
+    <col min="1799" max="1799" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="1800" max="1800" width="10.125" style="27" customWidth="1"/>
+    <col min="1801" max="1801" width="11.625" style="27" customWidth="1"/>
+    <col min="1802" max="2048" width="9" style="27"/>
+    <col min="2049" max="2049" width="3.125" style="27" customWidth="1"/>
+    <col min="2050" max="2050" width="9.75" style="27" customWidth="1"/>
+    <col min="2051" max="2051" width="40.125" style="27" customWidth="1"/>
+    <col min="2052" max="2052" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2053" max="2054" width="21.625" style="27" customWidth="1"/>
+    <col min="2055" max="2055" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2056" max="2056" width="10.125" style="27" customWidth="1"/>
+    <col min="2057" max="2057" width="11.625" style="27" customWidth="1"/>
+    <col min="2058" max="2304" width="9" style="27"/>
+    <col min="2305" max="2305" width="3.125" style="27" customWidth="1"/>
+    <col min="2306" max="2306" width="9.75" style="27" customWidth="1"/>
+    <col min="2307" max="2307" width="40.125" style="27" customWidth="1"/>
+    <col min="2308" max="2308" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2309" max="2310" width="21.625" style="27" customWidth="1"/>
+    <col min="2311" max="2311" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2312" max="2312" width="10.125" style="27" customWidth="1"/>
+    <col min="2313" max="2313" width="11.625" style="27" customWidth="1"/>
+    <col min="2314" max="2560" width="9" style="27"/>
+    <col min="2561" max="2561" width="3.125" style="27" customWidth="1"/>
+    <col min="2562" max="2562" width="9.75" style="27" customWidth="1"/>
+    <col min="2563" max="2563" width="40.125" style="27" customWidth="1"/>
+    <col min="2564" max="2564" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2565" max="2566" width="21.625" style="27" customWidth="1"/>
+    <col min="2567" max="2567" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2568" max="2568" width="10.125" style="27" customWidth="1"/>
+    <col min="2569" max="2569" width="11.625" style="27" customWidth="1"/>
+    <col min="2570" max="2816" width="9" style="27"/>
+    <col min="2817" max="2817" width="3.125" style="27" customWidth="1"/>
+    <col min="2818" max="2818" width="9.75" style="27" customWidth="1"/>
+    <col min="2819" max="2819" width="40.125" style="27" customWidth="1"/>
+    <col min="2820" max="2820" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="2821" max="2822" width="21.625" style="27" customWidth="1"/>
+    <col min="2823" max="2823" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="2824" max="2824" width="10.125" style="27" customWidth="1"/>
+    <col min="2825" max="2825" width="11.625" style="27" customWidth="1"/>
+    <col min="2826" max="3072" width="9" style="27"/>
+    <col min="3073" max="3073" width="3.125" style="27" customWidth="1"/>
+    <col min="3074" max="3074" width="9.75" style="27" customWidth="1"/>
+    <col min="3075" max="3075" width="40.125" style="27" customWidth="1"/>
+    <col min="3076" max="3076" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3077" max="3078" width="21.625" style="27" customWidth="1"/>
+    <col min="3079" max="3079" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3080" max="3080" width="10.125" style="27" customWidth="1"/>
+    <col min="3081" max="3081" width="11.625" style="27" customWidth="1"/>
+    <col min="3082" max="3328" width="9" style="27"/>
+    <col min="3329" max="3329" width="3.125" style="27" customWidth="1"/>
+    <col min="3330" max="3330" width="9.75" style="27" customWidth="1"/>
+    <col min="3331" max="3331" width="40.125" style="27" customWidth="1"/>
+    <col min="3332" max="3332" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3333" max="3334" width="21.625" style="27" customWidth="1"/>
+    <col min="3335" max="3335" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3336" max="3336" width="10.125" style="27" customWidth="1"/>
+    <col min="3337" max="3337" width="11.625" style="27" customWidth="1"/>
+    <col min="3338" max="3584" width="9" style="27"/>
+    <col min="3585" max="3585" width="3.125" style="27" customWidth="1"/>
+    <col min="3586" max="3586" width="9.75" style="27" customWidth="1"/>
+    <col min="3587" max="3587" width="40.125" style="27" customWidth="1"/>
+    <col min="3588" max="3588" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3589" max="3590" width="21.625" style="27" customWidth="1"/>
+    <col min="3591" max="3591" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3592" max="3592" width="10.125" style="27" customWidth="1"/>
+    <col min="3593" max="3593" width="11.625" style="27" customWidth="1"/>
+    <col min="3594" max="3840" width="9" style="27"/>
+    <col min="3841" max="3841" width="3.125" style="27" customWidth="1"/>
+    <col min="3842" max="3842" width="9.75" style="27" customWidth="1"/>
+    <col min="3843" max="3843" width="40.125" style="27" customWidth="1"/>
+    <col min="3844" max="3844" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="3845" max="3846" width="21.625" style="27" customWidth="1"/>
+    <col min="3847" max="3847" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="3848" max="3848" width="10.125" style="27" customWidth="1"/>
+    <col min="3849" max="3849" width="11.625" style="27" customWidth="1"/>
+    <col min="3850" max="4096" width="9" style="27"/>
+    <col min="4097" max="4097" width="3.125" style="27" customWidth="1"/>
+    <col min="4098" max="4098" width="9.75" style="27" customWidth="1"/>
+    <col min="4099" max="4099" width="40.125" style="27" customWidth="1"/>
+    <col min="4100" max="4100" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4101" max="4102" width="21.625" style="27" customWidth="1"/>
+    <col min="4103" max="4103" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4104" max="4104" width="10.125" style="27" customWidth="1"/>
+    <col min="4105" max="4105" width="11.625" style="27" customWidth="1"/>
+    <col min="4106" max="4352" width="9" style="27"/>
+    <col min="4353" max="4353" width="3.125" style="27" customWidth="1"/>
+    <col min="4354" max="4354" width="9.75" style="27" customWidth="1"/>
+    <col min="4355" max="4355" width="40.125" style="27" customWidth="1"/>
+    <col min="4356" max="4356" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4357" max="4358" width="21.625" style="27" customWidth="1"/>
+    <col min="4359" max="4359" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4360" max="4360" width="10.125" style="27" customWidth="1"/>
+    <col min="4361" max="4361" width="11.625" style="27" customWidth="1"/>
+    <col min="4362" max="4608" width="9" style="27"/>
+    <col min="4609" max="4609" width="3.125" style="27" customWidth="1"/>
+    <col min="4610" max="4610" width="9.75" style="27" customWidth="1"/>
+    <col min="4611" max="4611" width="40.125" style="27" customWidth="1"/>
+    <col min="4612" max="4612" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4613" max="4614" width="21.625" style="27" customWidth="1"/>
+    <col min="4615" max="4615" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4616" max="4616" width="10.125" style="27" customWidth="1"/>
+    <col min="4617" max="4617" width="11.625" style="27" customWidth="1"/>
+    <col min="4618" max="4864" width="9" style="27"/>
+    <col min="4865" max="4865" width="3.125" style="27" customWidth="1"/>
+    <col min="4866" max="4866" width="9.75" style="27" customWidth="1"/>
+    <col min="4867" max="4867" width="40.125" style="27" customWidth="1"/>
+    <col min="4868" max="4868" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="4869" max="4870" width="21.625" style="27" customWidth="1"/>
+    <col min="4871" max="4871" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="4872" max="4872" width="10.125" style="27" customWidth="1"/>
+    <col min="4873" max="4873" width="11.625" style="27" customWidth="1"/>
+    <col min="4874" max="5120" width="9" style="27"/>
+    <col min="5121" max="5121" width="3.125" style="27" customWidth="1"/>
+    <col min="5122" max="5122" width="9.75" style="27" customWidth="1"/>
+    <col min="5123" max="5123" width="40.125" style="27" customWidth="1"/>
+    <col min="5124" max="5124" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5125" max="5126" width="21.625" style="27" customWidth="1"/>
+    <col min="5127" max="5127" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5128" max="5128" width="10.125" style="27" customWidth="1"/>
+    <col min="5129" max="5129" width="11.625" style="27" customWidth="1"/>
+    <col min="5130" max="5376" width="9" style="27"/>
+    <col min="5377" max="5377" width="3.125" style="27" customWidth="1"/>
+    <col min="5378" max="5378" width="9.75" style="27" customWidth="1"/>
+    <col min="5379" max="5379" width="40.125" style="27" customWidth="1"/>
+    <col min="5380" max="5380" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5381" max="5382" width="21.625" style="27" customWidth="1"/>
+    <col min="5383" max="5383" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5384" max="5384" width="10.125" style="27" customWidth="1"/>
+    <col min="5385" max="5385" width="11.625" style="27" customWidth="1"/>
+    <col min="5386" max="5632" width="9" style="27"/>
+    <col min="5633" max="5633" width="3.125" style="27" customWidth="1"/>
+    <col min="5634" max="5634" width="9.75" style="27" customWidth="1"/>
+    <col min="5635" max="5635" width="40.125" style="27" customWidth="1"/>
+    <col min="5636" max="5636" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5637" max="5638" width="21.625" style="27" customWidth="1"/>
+    <col min="5639" max="5639" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5640" max="5640" width="10.125" style="27" customWidth="1"/>
+    <col min="5641" max="5641" width="11.625" style="27" customWidth="1"/>
+    <col min="5642" max="5888" width="9" style="27"/>
+    <col min="5889" max="5889" width="3.125" style="27" customWidth="1"/>
+    <col min="5890" max="5890" width="9.75" style="27" customWidth="1"/>
+    <col min="5891" max="5891" width="40.125" style="27" customWidth="1"/>
+    <col min="5892" max="5892" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="5893" max="5894" width="21.625" style="27" customWidth="1"/>
+    <col min="5895" max="5895" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="5896" max="5896" width="10.125" style="27" customWidth="1"/>
+    <col min="5897" max="5897" width="11.625" style="27" customWidth="1"/>
+    <col min="5898" max="6144" width="9" style="27"/>
+    <col min="6145" max="6145" width="3.125" style="27" customWidth="1"/>
+    <col min="6146" max="6146" width="9.75" style="27" customWidth="1"/>
+    <col min="6147" max="6147" width="40.125" style="27" customWidth="1"/>
+    <col min="6148" max="6148" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6149" max="6150" width="21.625" style="27" customWidth="1"/>
+    <col min="6151" max="6151" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6152" max="6152" width="10.125" style="27" customWidth="1"/>
+    <col min="6153" max="6153" width="11.625" style="27" customWidth="1"/>
+    <col min="6154" max="6400" width="9" style="27"/>
+    <col min="6401" max="6401" width="3.125" style="27" customWidth="1"/>
+    <col min="6402" max="6402" width="9.75" style="27" customWidth="1"/>
+    <col min="6403" max="6403" width="40.125" style="27" customWidth="1"/>
+    <col min="6404" max="6404" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6405" max="6406" width="21.625" style="27" customWidth="1"/>
+    <col min="6407" max="6407" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6408" max="6408" width="10.125" style="27" customWidth="1"/>
+    <col min="6409" max="6409" width="11.625" style="27" customWidth="1"/>
+    <col min="6410" max="6656" width="9" style="27"/>
+    <col min="6657" max="6657" width="3.125" style="27" customWidth="1"/>
+    <col min="6658" max="6658" width="9.75" style="27" customWidth="1"/>
+    <col min="6659" max="6659" width="40.125" style="27" customWidth="1"/>
+    <col min="6660" max="6660" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6661" max="6662" width="21.625" style="27" customWidth="1"/>
+    <col min="6663" max="6663" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6664" max="6664" width="10.125" style="27" customWidth="1"/>
+    <col min="6665" max="6665" width="11.625" style="27" customWidth="1"/>
+    <col min="6666" max="6912" width="9" style="27"/>
+    <col min="6913" max="6913" width="3.125" style="27" customWidth="1"/>
+    <col min="6914" max="6914" width="9.75" style="27" customWidth="1"/>
+    <col min="6915" max="6915" width="40.125" style="27" customWidth="1"/>
+    <col min="6916" max="6916" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="6917" max="6918" width="21.625" style="27" customWidth="1"/>
+    <col min="6919" max="6919" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="6920" max="6920" width="10.125" style="27" customWidth="1"/>
+    <col min="6921" max="6921" width="11.625" style="27" customWidth="1"/>
+    <col min="6922" max="7168" width="9" style="27"/>
+    <col min="7169" max="7169" width="3.125" style="27" customWidth="1"/>
+    <col min="7170" max="7170" width="9.75" style="27" customWidth="1"/>
+    <col min="7171" max="7171" width="40.125" style="27" customWidth="1"/>
+    <col min="7172" max="7172" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7173" max="7174" width="21.625" style="27" customWidth="1"/>
+    <col min="7175" max="7175" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7176" max="7176" width="10.125" style="27" customWidth="1"/>
+    <col min="7177" max="7177" width="11.625" style="27" customWidth="1"/>
+    <col min="7178" max="7424" width="9" style="27"/>
+    <col min="7425" max="7425" width="3.125" style="27" customWidth="1"/>
+    <col min="7426" max="7426" width="9.75" style="27" customWidth="1"/>
+    <col min="7427" max="7427" width="40.125" style="27" customWidth="1"/>
+    <col min="7428" max="7428" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7429" max="7430" width="21.625" style="27" customWidth="1"/>
+    <col min="7431" max="7431" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7432" max="7432" width="10.125" style="27" customWidth="1"/>
+    <col min="7433" max="7433" width="11.625" style="27" customWidth="1"/>
+    <col min="7434" max="7680" width="9" style="27"/>
+    <col min="7681" max="7681" width="3.125" style="27" customWidth="1"/>
+    <col min="7682" max="7682" width="9.75" style="27" customWidth="1"/>
+    <col min="7683" max="7683" width="40.125" style="27" customWidth="1"/>
+    <col min="7684" max="7684" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7685" max="7686" width="21.625" style="27" customWidth="1"/>
+    <col min="7687" max="7687" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7688" max="7688" width="10.125" style="27" customWidth="1"/>
+    <col min="7689" max="7689" width="11.625" style="27" customWidth="1"/>
+    <col min="7690" max="7936" width="9" style="27"/>
+    <col min="7937" max="7937" width="3.125" style="27" customWidth="1"/>
+    <col min="7938" max="7938" width="9.75" style="27" customWidth="1"/>
+    <col min="7939" max="7939" width="40.125" style="27" customWidth="1"/>
+    <col min="7940" max="7940" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="7941" max="7942" width="21.625" style="27" customWidth="1"/>
+    <col min="7943" max="7943" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="7944" max="7944" width="10.125" style="27" customWidth="1"/>
+    <col min="7945" max="7945" width="11.625" style="27" customWidth="1"/>
+    <col min="7946" max="8192" width="9" style="27"/>
+    <col min="8193" max="8193" width="3.125" style="27" customWidth="1"/>
+    <col min="8194" max="8194" width="9.75" style="27" customWidth="1"/>
+    <col min="8195" max="8195" width="40.125" style="27" customWidth="1"/>
+    <col min="8196" max="8196" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8197" max="8198" width="21.625" style="27" customWidth="1"/>
+    <col min="8199" max="8199" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8200" max="8200" width="10.125" style="27" customWidth="1"/>
+    <col min="8201" max="8201" width="11.625" style="27" customWidth="1"/>
+    <col min="8202" max="8448" width="9" style="27"/>
+    <col min="8449" max="8449" width="3.125" style="27" customWidth="1"/>
+    <col min="8450" max="8450" width="9.75" style="27" customWidth="1"/>
+    <col min="8451" max="8451" width="40.125" style="27" customWidth="1"/>
+    <col min="8452" max="8452" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8453" max="8454" width="21.625" style="27" customWidth="1"/>
+    <col min="8455" max="8455" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8456" max="8456" width="10.125" style="27" customWidth="1"/>
+    <col min="8457" max="8457" width="11.625" style="27" customWidth="1"/>
+    <col min="8458" max="8704" width="9" style="27"/>
+    <col min="8705" max="8705" width="3.125" style="27" customWidth="1"/>
+    <col min="8706" max="8706" width="9.75" style="27" customWidth="1"/>
+    <col min="8707" max="8707" width="40.125" style="27" customWidth="1"/>
+    <col min="8708" max="8708" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8709" max="8710" width="21.625" style="27" customWidth="1"/>
+    <col min="8711" max="8711" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8712" max="8712" width="10.125" style="27" customWidth="1"/>
+    <col min="8713" max="8713" width="11.625" style="27" customWidth="1"/>
+    <col min="8714" max="8960" width="9" style="27"/>
+    <col min="8961" max="8961" width="3.125" style="27" customWidth="1"/>
+    <col min="8962" max="8962" width="9.75" style="27" customWidth="1"/>
+    <col min="8963" max="8963" width="40.125" style="27" customWidth="1"/>
+    <col min="8964" max="8964" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="8965" max="8966" width="21.625" style="27" customWidth="1"/>
+    <col min="8967" max="8967" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="8968" max="8968" width="10.125" style="27" customWidth="1"/>
+    <col min="8969" max="8969" width="11.625" style="27" customWidth="1"/>
+    <col min="8970" max="9216" width="9" style="27"/>
+    <col min="9217" max="9217" width="3.125" style="27" customWidth="1"/>
+    <col min="9218" max="9218" width="9.75" style="27" customWidth="1"/>
+    <col min="9219" max="9219" width="40.125" style="27" customWidth="1"/>
+    <col min="9220" max="9220" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9221" max="9222" width="21.625" style="27" customWidth="1"/>
+    <col min="9223" max="9223" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9224" max="9224" width="10.125" style="27" customWidth="1"/>
+    <col min="9225" max="9225" width="11.625" style="27" customWidth="1"/>
+    <col min="9226" max="9472" width="9" style="27"/>
+    <col min="9473" max="9473" width="3.125" style="27" customWidth="1"/>
+    <col min="9474" max="9474" width="9.75" style="27" customWidth="1"/>
+    <col min="9475" max="9475" width="40.125" style="27" customWidth="1"/>
+    <col min="9476" max="9476" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9477" max="9478" width="21.625" style="27" customWidth="1"/>
+    <col min="9479" max="9479" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9480" max="9480" width="10.125" style="27" customWidth="1"/>
+    <col min="9481" max="9481" width="11.625" style="27" customWidth="1"/>
+    <col min="9482" max="9728" width="9" style="27"/>
+    <col min="9729" max="9729" width="3.125" style="27" customWidth="1"/>
+    <col min="9730" max="9730" width="9.75" style="27" customWidth="1"/>
+    <col min="9731" max="9731" width="40.125" style="27" customWidth="1"/>
+    <col min="9732" max="9732" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9733" max="9734" width="21.625" style="27" customWidth="1"/>
+    <col min="9735" max="9735" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9736" max="9736" width="10.125" style="27" customWidth="1"/>
+    <col min="9737" max="9737" width="11.625" style="27" customWidth="1"/>
+    <col min="9738" max="9984" width="9" style="27"/>
+    <col min="9985" max="9985" width="3.125" style="27" customWidth="1"/>
+    <col min="9986" max="9986" width="9.75" style="27" customWidth="1"/>
+    <col min="9987" max="9987" width="40.125" style="27" customWidth="1"/>
+    <col min="9988" max="9988" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="9989" max="9990" width="21.625" style="27" customWidth="1"/>
+    <col min="9991" max="9991" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="9992" max="9992" width="10.125" style="27" customWidth="1"/>
+    <col min="9993" max="9993" width="11.625" style="27" customWidth="1"/>
+    <col min="9994" max="10240" width="9" style="27"/>
+    <col min="10241" max="10241" width="3.125" style="27" customWidth="1"/>
+    <col min="10242" max="10242" width="9.75" style="27" customWidth="1"/>
+    <col min="10243" max="10243" width="40.125" style="27" customWidth="1"/>
+    <col min="10244" max="10244" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10245" max="10246" width="21.625" style="27" customWidth="1"/>
+    <col min="10247" max="10247" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10248" max="10248" width="10.125" style="27" customWidth="1"/>
+    <col min="10249" max="10249" width="11.625" style="27" customWidth="1"/>
+    <col min="10250" max="10496" width="9" style="27"/>
+    <col min="10497" max="10497" width="3.125" style="27" customWidth="1"/>
+    <col min="10498" max="10498" width="9.75" style="27" customWidth="1"/>
+    <col min="10499" max="10499" width="40.125" style="27" customWidth="1"/>
+    <col min="10500" max="10500" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10501" max="10502" width="21.625" style="27" customWidth="1"/>
+    <col min="10503" max="10503" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10504" max="10504" width="10.125" style="27" customWidth="1"/>
+    <col min="10505" max="10505" width="11.625" style="27" customWidth="1"/>
+    <col min="10506" max="10752" width="9" style="27"/>
+    <col min="10753" max="10753" width="3.125" style="27" customWidth="1"/>
+    <col min="10754" max="10754" width="9.75" style="27" customWidth="1"/>
+    <col min="10755" max="10755" width="40.125" style="27" customWidth="1"/>
+    <col min="10756" max="10756" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="10757" max="10758" width="21.625" style="27" customWidth="1"/>
+    <col min="10759" max="10759" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="10760" max="10760" width="10.125" style="27" customWidth="1"/>
+    <col min="10761" max="10761" width="11.625" style="27" customWidth="1"/>
+    <col min="10762" max="11008" width="9" style="27"/>
+    <col min="11009" max="11009" width="3.125" style="27" customWidth="1"/>
+    <col min="11010" max="11010" width="9.75" style="27" customWidth="1"/>
+    <col min="11011" max="11011" width="40.125" style="27" customWidth="1"/>
+    <col min="11012" max="11012" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11013" max="11014" width="21.625" style="27" customWidth="1"/>
+    <col min="11015" max="11015" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11016" max="11016" width="10.125" style="27" customWidth="1"/>
+    <col min="11017" max="11017" width="11.625" style="27" customWidth="1"/>
+    <col min="11018" max="11264" width="9" style="27"/>
+    <col min="11265" max="11265" width="3.125" style="27" customWidth="1"/>
+    <col min="11266" max="11266" width="9.75" style="27" customWidth="1"/>
+    <col min="11267" max="11267" width="40.125" style="27" customWidth="1"/>
+    <col min="11268" max="11268" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11269" max="11270" width="21.625" style="27" customWidth="1"/>
+    <col min="11271" max="11271" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11272" max="11272" width="10.125" style="27" customWidth="1"/>
+    <col min="11273" max="11273" width="11.625" style="27" customWidth="1"/>
+    <col min="11274" max="11520" width="9" style="27"/>
+    <col min="11521" max="11521" width="3.125" style="27" customWidth="1"/>
+    <col min="11522" max="11522" width="9.75" style="27" customWidth="1"/>
+    <col min="11523" max="11523" width="40.125" style="27" customWidth="1"/>
+    <col min="11524" max="11524" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11525" max="11526" width="21.625" style="27" customWidth="1"/>
+    <col min="11527" max="11527" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11528" max="11528" width="10.125" style="27" customWidth="1"/>
+    <col min="11529" max="11529" width="11.625" style="27" customWidth="1"/>
+    <col min="11530" max="11776" width="9" style="27"/>
+    <col min="11777" max="11777" width="3.125" style="27" customWidth="1"/>
+    <col min="11778" max="11778" width="9.75" style="27" customWidth="1"/>
+    <col min="11779" max="11779" width="40.125" style="27" customWidth="1"/>
+    <col min="11780" max="11780" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="11781" max="11782" width="21.625" style="27" customWidth="1"/>
+    <col min="11783" max="11783" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="11784" max="11784" width="10.125" style="27" customWidth="1"/>
+    <col min="11785" max="11785" width="11.625" style="27" customWidth="1"/>
+    <col min="11786" max="12032" width="9" style="27"/>
+    <col min="12033" max="12033" width="3.125" style="27" customWidth="1"/>
+    <col min="12034" max="12034" width="9.75" style="27" customWidth="1"/>
+    <col min="12035" max="12035" width="40.125" style="27" customWidth="1"/>
+    <col min="12036" max="12036" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12037" max="12038" width="21.625" style="27" customWidth="1"/>
+    <col min="12039" max="12039" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12040" max="12040" width="10.125" style="27" customWidth="1"/>
+    <col min="12041" max="12041" width="11.625" style="27" customWidth="1"/>
+    <col min="12042" max="12288" width="9" style="27"/>
+    <col min="12289" max="12289" width="3.125" style="27" customWidth="1"/>
+    <col min="12290" max="12290" width="9.75" style="27" customWidth="1"/>
+    <col min="12291" max="12291" width="40.125" style="27" customWidth="1"/>
+    <col min="12292" max="12292" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12293" max="12294" width="21.625" style="27" customWidth="1"/>
+    <col min="12295" max="12295" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12296" max="12296" width="10.125" style="27" customWidth="1"/>
+    <col min="12297" max="12297" width="11.625" style="27" customWidth="1"/>
+    <col min="12298" max="12544" width="9" style="27"/>
+    <col min="12545" max="12545" width="3.125" style="27" customWidth="1"/>
+    <col min="12546" max="12546" width="9.75" style="27" customWidth="1"/>
+    <col min="12547" max="12547" width="40.125" style="27" customWidth="1"/>
+    <col min="12548" max="12548" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12549" max="12550" width="21.625" style="27" customWidth="1"/>
+    <col min="12551" max="12551" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12552" max="12552" width="10.125" style="27" customWidth="1"/>
+    <col min="12553" max="12553" width="11.625" style="27" customWidth="1"/>
+    <col min="12554" max="12800" width="9" style="27"/>
+    <col min="12801" max="12801" width="3.125" style="27" customWidth="1"/>
+    <col min="12802" max="12802" width="9.75" style="27" customWidth="1"/>
+    <col min="12803" max="12803" width="40.125" style="27" customWidth="1"/>
+    <col min="12804" max="12804" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="12805" max="12806" width="21.625" style="27" customWidth="1"/>
+    <col min="12807" max="12807" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="12808" max="12808" width="10.125" style="27" customWidth="1"/>
+    <col min="12809" max="12809" width="11.625" style="27" customWidth="1"/>
+    <col min="12810" max="13056" width="9" style="27"/>
+    <col min="13057" max="13057" width="3.125" style="27" customWidth="1"/>
+    <col min="13058" max="13058" width="9.75" style="27" customWidth="1"/>
+    <col min="13059" max="13059" width="40.125" style="27" customWidth="1"/>
+    <col min="13060" max="13060" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13061" max="13062" width="21.625" style="27" customWidth="1"/>
+    <col min="13063" max="13063" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13064" max="13064" width="10.125" style="27" customWidth="1"/>
+    <col min="13065" max="13065" width="11.625" style="27" customWidth="1"/>
+    <col min="13066" max="13312" width="9" style="27"/>
+    <col min="13313" max="13313" width="3.125" style="27" customWidth="1"/>
+    <col min="13314" max="13314" width="9.75" style="27" customWidth="1"/>
+    <col min="13315" max="13315" width="40.125" style="27" customWidth="1"/>
+    <col min="13316" max="13316" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13317" max="13318" width="21.625" style="27" customWidth="1"/>
+    <col min="13319" max="13319" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13320" max="13320" width="10.125" style="27" customWidth="1"/>
+    <col min="13321" max="13321" width="11.625" style="27" customWidth="1"/>
+    <col min="13322" max="13568" width="9" style="27"/>
+    <col min="13569" max="13569" width="3.125" style="27" customWidth="1"/>
+    <col min="13570" max="13570" width="9.75" style="27" customWidth="1"/>
+    <col min="13571" max="13571" width="40.125" style="27" customWidth="1"/>
+    <col min="13572" max="13572" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13573" max="13574" width="21.625" style="27" customWidth="1"/>
+    <col min="13575" max="13575" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13576" max="13576" width="10.125" style="27" customWidth="1"/>
+    <col min="13577" max="13577" width="11.625" style="27" customWidth="1"/>
+    <col min="13578" max="13824" width="9" style="27"/>
+    <col min="13825" max="13825" width="3.125" style="27" customWidth="1"/>
+    <col min="13826" max="13826" width="9.75" style="27" customWidth="1"/>
+    <col min="13827" max="13827" width="40.125" style="27" customWidth="1"/>
+    <col min="13828" max="13828" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="13829" max="13830" width="21.625" style="27" customWidth="1"/>
+    <col min="13831" max="13831" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="13832" max="13832" width="10.125" style="27" customWidth="1"/>
+    <col min="13833" max="13833" width="11.625" style="27" customWidth="1"/>
+    <col min="13834" max="14080" width="9" style="27"/>
+    <col min="14081" max="14081" width="3.125" style="27" customWidth="1"/>
+    <col min="14082" max="14082" width="9.75" style="27" customWidth="1"/>
+    <col min="14083" max="14083" width="40.125" style="27" customWidth="1"/>
+    <col min="14084" max="14084" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14085" max="14086" width="21.625" style="27" customWidth="1"/>
+    <col min="14087" max="14087" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14088" max="14088" width="10.125" style="27" customWidth="1"/>
+    <col min="14089" max="14089" width="11.625" style="27" customWidth="1"/>
+    <col min="14090" max="14336" width="9" style="27"/>
+    <col min="14337" max="14337" width="3.125" style="27" customWidth="1"/>
+    <col min="14338" max="14338" width="9.75" style="27" customWidth="1"/>
+    <col min="14339" max="14339" width="40.125" style="27" customWidth="1"/>
+    <col min="14340" max="14340" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14341" max="14342" width="21.625" style="27" customWidth="1"/>
+    <col min="14343" max="14343" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14344" max="14344" width="10.125" style="27" customWidth="1"/>
+    <col min="14345" max="14345" width="11.625" style="27" customWidth="1"/>
+    <col min="14346" max="14592" width="9" style="27"/>
+    <col min="14593" max="14593" width="3.125" style="27" customWidth="1"/>
+    <col min="14594" max="14594" width="9.75" style="27" customWidth="1"/>
+    <col min="14595" max="14595" width="40.125" style="27" customWidth="1"/>
+    <col min="14596" max="14596" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14597" max="14598" width="21.625" style="27" customWidth="1"/>
+    <col min="14599" max="14599" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14600" max="14600" width="10.125" style="27" customWidth="1"/>
+    <col min="14601" max="14601" width="11.625" style="27" customWidth="1"/>
+    <col min="14602" max="14848" width="9" style="27"/>
+    <col min="14849" max="14849" width="3.125" style="27" customWidth="1"/>
+    <col min="14850" max="14850" width="9.75" style="27" customWidth="1"/>
+    <col min="14851" max="14851" width="40.125" style="27" customWidth="1"/>
+    <col min="14852" max="14852" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="14853" max="14854" width="21.625" style="27" customWidth="1"/>
+    <col min="14855" max="14855" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="14856" max="14856" width="10.125" style="27" customWidth="1"/>
+    <col min="14857" max="14857" width="11.625" style="27" customWidth="1"/>
+    <col min="14858" max="15104" width="9" style="27"/>
+    <col min="15105" max="15105" width="3.125" style="27" customWidth="1"/>
+    <col min="15106" max="15106" width="9.75" style="27" customWidth="1"/>
+    <col min="15107" max="15107" width="40.125" style="27" customWidth="1"/>
+    <col min="15108" max="15108" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15109" max="15110" width="21.625" style="27" customWidth="1"/>
+    <col min="15111" max="15111" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15112" max="15112" width="10.125" style="27" customWidth="1"/>
+    <col min="15113" max="15113" width="11.625" style="27" customWidth="1"/>
+    <col min="15114" max="15360" width="9" style="27"/>
+    <col min="15361" max="15361" width="3.125" style="27" customWidth="1"/>
+    <col min="15362" max="15362" width="9.75" style="27" customWidth="1"/>
+    <col min="15363" max="15363" width="40.125" style="27" customWidth="1"/>
+    <col min="15364" max="15364" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15365" max="15366" width="21.625" style="27" customWidth="1"/>
+    <col min="15367" max="15367" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15368" max="15368" width="10.125" style="27" customWidth="1"/>
+    <col min="15369" max="15369" width="11.625" style="27" customWidth="1"/>
+    <col min="15370" max="15616" width="9" style="27"/>
+    <col min="15617" max="15617" width="3.125" style="27" customWidth="1"/>
+    <col min="15618" max="15618" width="9.75" style="27" customWidth="1"/>
+    <col min="15619" max="15619" width="40.125" style="27" customWidth="1"/>
+    <col min="15620" max="15620" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15621" max="15622" width="21.625" style="27" customWidth="1"/>
+    <col min="15623" max="15623" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15624" max="15624" width="10.125" style="27" customWidth="1"/>
+    <col min="15625" max="15625" width="11.625" style="27" customWidth="1"/>
+    <col min="15626" max="15872" width="9" style="27"/>
+    <col min="15873" max="15873" width="3.125" style="27" customWidth="1"/>
+    <col min="15874" max="15874" width="9.75" style="27" customWidth="1"/>
+    <col min="15875" max="15875" width="40.125" style="27" customWidth="1"/>
+    <col min="15876" max="15876" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="15877" max="15878" width="21.625" style="27" customWidth="1"/>
+    <col min="15879" max="15879" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="15880" max="15880" width="10.125" style="27" customWidth="1"/>
+    <col min="15881" max="15881" width="11.625" style="27" customWidth="1"/>
+    <col min="15882" max="16128" width="9" style="27"/>
+    <col min="16129" max="16129" width="3.125" style="27" customWidth="1"/>
+    <col min="16130" max="16130" width="9.75" style="27" customWidth="1"/>
+    <col min="16131" max="16131" width="40.125" style="27" customWidth="1"/>
+    <col min="16132" max="16132" width="13.125" style="27" bestFit="1" customWidth="1"/>
+    <col min="16133" max="16134" width="21.625" style="27" customWidth="1"/>
+    <col min="16135" max="16135" width="4.75" style="27" bestFit="1" customWidth="1"/>
+    <col min="16136" max="16136" width="10.125" style="27" customWidth="1"/>
+    <col min="16137" max="16137" width="11.625" style="27" customWidth="1"/>
+    <col min="16138" max="16384" width="9" style="27"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="31"/>
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="35"/>
+      <c r="H1" s="35"/>
+      <c r="I1" s="35"/>
+    </row>
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
+      <c r="A2" s="26" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B4" s="33" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B5" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B6" s="25"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B8" s="36" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="25" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B10" s="105" t="s">
+        <v>39</v>
+      </c>
+      <c r="C10" s="106" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="106" t="s">
+        <v>41</v>
+      </c>
+      <c r="E10" s="106" t="s">
+        <v>42</v>
+      </c>
+      <c r="F10" s="106" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="106" t="s">
+        <v>44</v>
+      </c>
+      <c r="H10" s="106" t="s">
+        <v>45</v>
+      </c>
+      <c r="I10" s="107" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A11" s="37"/>
+      <c r="B11" s="64" t="s">
+        <v>438</v>
+      </c>
+      <c r="C11" s="51" t="s">
+        <v>441</v>
+      </c>
+      <c r="D11" s="51" t="s">
+        <v>440</v>
+      </c>
+      <c r="E11" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F11" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G11" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="H11" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="I11" s="78">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A12" s="37"/>
+      <c r="B12" s="64" t="s">
+        <v>445</v>
+      </c>
+      <c r="C12" s="51" t="s">
+        <v>442</v>
+      </c>
+      <c r="D12" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="E12" s="51" t="s">
+        <v>358</v>
+      </c>
+      <c r="F12" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G12" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="I12" s="78">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A13" s="37"/>
+      <c r="B13" s="64" t="s">
+        <v>446</v>
+      </c>
+      <c r="C13" s="51" t="s">
+        <v>443</v>
+      </c>
+      <c r="D13" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="E13" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="F13" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G13" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="H13" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="I13" s="78">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
+      <c r="A14" s="37"/>
+      <c r="B14" s="64" t="s">
+        <v>447</v>
+      </c>
+      <c r="C14" s="51" t="s">
+        <v>444</v>
+      </c>
+      <c r="D14" s="51" t="s">
+        <v>439</v>
+      </c>
+      <c r="E14" s="51" t="s">
+        <v>353</v>
+      </c>
+      <c r="F14" s="51" t="s">
+        <v>449</v>
+      </c>
+      <c r="G14" s="51" t="s">
+        <v>384</v>
+      </c>
+      <c r="H14" s="51" t="s">
+        <v>451</v>
+      </c>
+      <c r="I14" s="78">
+        <v>45391</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B15" s="64"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
+      <c r="H15" s="51"/>
+      <c r="I15" s="78"/>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B16" s="64"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="78"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B17" s="68"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="76"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B18" s="68"/>
+      <c r="C18" s="51"/>
+      <c r="D18" s="51"/>
+      <c r="E18" s="51"/>
+      <c r="F18" s="46"/>
+      <c r="G18" s="46"/>
+      <c r="H18" s="46"/>
+      <c r="I18" s="76"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B19" s="68"/>
+      <c r="C19" s="51"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="51"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="76"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B20" s="68"/>
+      <c r="C20" s="51"/>
+      <c r="D20" s="51"/>
+      <c r="E20" s="51"/>
+      <c r="F20" s="46"/>
+      <c r="G20" s="46"/>
+      <c r="H20" s="46"/>
+      <c r="I20" s="76"/>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B21" s="68"/>
+      <c r="C21" s="51"/>
+      <c r="D21" s="51"/>
+      <c r="E21" s="57"/>
+      <c r="F21" s="57"/>
+      <c r="G21" s="57"/>
+      <c r="H21" s="57"/>
+      <c r="I21" s="76"/>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A22" s="37"/>
+      <c r="B22" s="68"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="76"/>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A23" s="37"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="51"/>
+      <c r="D23" s="51"/>
+      <c r="E23" s="57"/>
+      <c r="F23" s="57"/>
+      <c r="G23" s="57"/>
+      <c r="H23" s="57"/>
+      <c r="I23" s="76"/>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B24" s="68"/>
+      <c r="C24" s="51"/>
+      <c r="D24" s="51"/>
+      <c r="E24" s="51"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="76"/>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B25" s="68"/>
+      <c r="C25" s="51"/>
+      <c r="D25" s="51"/>
+      <c r="E25" s="57"/>
+      <c r="F25" s="57"/>
+      <c r="G25" s="57"/>
+      <c r="H25" s="57"/>
+      <c r="I25" s="76"/>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A26" s="37"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="46"/>
+      <c r="D26" s="46"/>
+      <c r="E26" s="46"/>
+      <c r="F26" s="57"/>
+      <c r="G26" s="57"/>
+      <c r="H26" s="57"/>
+      <c r="I26" s="76"/>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="A27" s="37"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="51"/>
+      <c r="D27" s="51"/>
+      <c r="E27" s="57"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="57"/>
+      <c r="I27" s="76"/>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B28" s="68"/>
+      <c r="C28" s="51"/>
+      <c r="D28" s="51"/>
+      <c r="E28" s="51"/>
+      <c r="F28" s="46"/>
+      <c r="G28" s="46"/>
+      <c r="H28" s="46"/>
+      <c r="I28" s="76"/>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B29" s="68"/>
+      <c r="C29" s="51"/>
+      <c r="D29" s="51"/>
+      <c r="E29" s="57"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="76"/>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B30" s="68"/>
+      <c r="C30" s="46"/>
+      <c r="D30" s="46"/>
+      <c r="E30" s="46"/>
+      <c r="F30" s="46"/>
+      <c r="G30" s="46"/>
+      <c r="H30" s="46"/>
+      <c r="I30" s="76"/>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B31" s="114"/>
+      <c r="C31" s="51"/>
+      <c r="D31" s="51"/>
+      <c r="E31" s="57"/>
+      <c r="F31" s="115"/>
+      <c r="G31" s="55"/>
+      <c r="H31" s="55"/>
+      <c r="I31" s="116"/>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B32" s="114"/>
+      <c r="C32" s="51"/>
+      <c r="D32" s="51"/>
+      <c r="E32" s="51"/>
+      <c r="F32" s="115"/>
+      <c r="G32" s="55"/>
+      <c r="H32" s="55"/>
+      <c r="I32" s="76"/>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B33" s="114"/>
+      <c r="C33" s="51"/>
+      <c r="D33" s="51"/>
+      <c r="E33" s="57"/>
+      <c r="F33" s="115"/>
+      <c r="G33" s="55"/>
+      <c r="H33" s="55"/>
+      <c r="I33" s="116"/>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B34" s="114"/>
+      <c r="C34" s="46"/>
+      <c r="D34" s="46"/>
+      <c r="E34" s="46"/>
+      <c r="F34" s="115"/>
+      <c r="G34" s="55"/>
+      <c r="H34" s="55"/>
+      <c r="I34" s="76"/>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B35" s="114"/>
+      <c r="C35" s="55"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="57"/>
+      <c r="F35" s="115"/>
+      <c r="G35" s="55"/>
+      <c r="H35" s="55"/>
+      <c r="I35" s="76"/>
+    </row>
+    <row r="36" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B36" s="72"/>
+      <c r="C36" s="47"/>
+      <c r="D36" s="47"/>
+      <c r="E36" s="47"/>
+      <c r="F36" s="58"/>
+      <c r="G36" s="47"/>
+      <c r="H36" s="47"/>
+      <c r="I36" s="77"/>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B37" s="34"/>
+      <c r="C37" s="34"/>
+      <c r="D37" s="34"/>
+      <c r="E37" s="34"/>
+      <c r="F37" s="34"/>
+      <c r="G37" s="34"/>
+      <c r="H37" s="34"/>
+      <c r="I37" s="34"/>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B38" s="34"/>
+      <c r="C38" s="34"/>
+      <c r="D38" s="34"/>
+      <c r="E38" s="34"/>
+      <c r="F38" s="34"/>
+      <c r="G38" s="34"/>
+      <c r="H38" s="34"/>
+      <c r="I38" s="34"/>
+    </row>
+    <row r="39" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A39" s="28"/>
+      <c r="B39" s="28"/>
+      <c r="C39" s="28"/>
+      <c r="D39" s="34"/>
+      <c r="E39" s="34"/>
+      <c r="F39" s="34"/>
+      <c r="G39" s="34"/>
+      <c r="H39" s="34"/>
+    </row>
+    <row r="40" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
+      <c r="A40" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="E40" s="34"/>
+      <c r="F40" s="34"/>
+      <c r="G40" s="34"/>
+      <c r="H40" s="34"/>
+      <c r="I40" s="34"/>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B41" s="34"/>
+      <c r="C41" s="34"/>
+      <c r="D41" s="34"/>
+      <c r="E41" s="34"/>
+      <c r="F41" s="34"/>
+      <c r="G41" s="34"/>
+      <c r="H41" s="34"/>
+      <c r="I41" s="34"/>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B42" s="38" t="s">
+        <v>452</v>
+      </c>
+      <c r="C42" s="34"/>
+      <c r="D42" s="34"/>
+      <c r="E42" s="34"/>
+      <c r="F42" s="34"/>
+      <c r="G42" s="34"/>
+      <c r="H42" s="34"/>
+      <c r="I42" s="34"/>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B43" s="34"/>
+      <c r="C43" s="34"/>
+      <c r="D43" s="34"/>
+      <c r="E43" s="34"/>
+      <c r="F43" s="34"/>
+      <c r="G43" s="34"/>
+      <c r="H43" s="34"/>
+      <c r="I43" s="34"/>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B44" s="34"/>
+      <c r="C44" s="34"/>
+      <c r="D44" s="34"/>
+      <c r="E44" s="34"/>
+      <c r="F44" s="34"/>
+      <c r="G44" s="34"/>
+      <c r="H44" s="34"/>
+      <c r="I44" s="34"/>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B45" s="34"/>
+      <c r="C45" s="34"/>
+      <c r="D45" s="34"/>
+      <c r="E45" s="34"/>
+      <c r="F45" s="34"/>
+      <c r="G45" s="34"/>
+      <c r="H45" s="34"/>
+      <c r="I45" s="34"/>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B46" s="34"/>
+      <c r="C46" s="34"/>
+      <c r="D46" s="34"/>
+      <c r="E46" s="34"/>
+      <c r="F46" s="34"/>
+      <c r="G46" s="34"/>
+      <c r="H46" s="34"/>
+      <c r="I46" s="34"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3"/>
+  <dataValidations disablePrompts="1" count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G11:G36">
+      <formula1>"OK,NG"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.51200000000000001" footer="0.51200000000000001"/>
+  <pageSetup paperSize="9" scale="64" fitToHeight="0" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <headerFooter alignWithMargins="0"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="3" width="9.125" style="27" customWidth="1"/>
@@ -23605,7 +25544,7 @@
     <col min="16137" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="6" customHeight="1">
+    <row r="1" spans="1:8" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -23615,51 +25554,51 @@
       <c r="G1" s="35"/>
       <c r="H1" s="35"/>
     </row>
-    <row r="2" spans="1:8" ht="17.25">
+    <row r="2" spans="1:8" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="14.25" thickBot="1">
+    <row r="4" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B4" s="33" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
-      <c r="B5" s="125" t="s">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.15">
+      <c r="B5" s="126" t="s">
         <v>64</v>
       </c>
       <c r="C5" s="108" t="s">
         <v>73</v>
       </c>
-      <c r="D5" s="127" t="s">
+      <c r="D5" s="128" t="s">
         <v>50</v>
       </c>
-      <c r="E5" s="129" t="s">
+      <c r="E5" s="130" t="s">
         <v>51</v>
       </c>
-      <c r="F5" s="127" t="s">
+      <c r="F5" s="128" t="s">
         <v>52</v>
       </c>
-      <c r="G5" s="129" t="s">
+      <c r="G5" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="H5" s="123" t="s">
+      <c r="H5" s="124" t="s">
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:8" ht="14.25" thickBot="1">
-      <c r="B6" s="126"/>
+    <row r="6" spans="1:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B6" s="127"/>
       <c r="C6" s="109" t="s">
         <v>55</v>
       </c>
-      <c r="D6" s="128"/>
-      <c r="E6" s="130"/>
-      <c r="F6" s="128"/>
-      <c r="G6" s="130"/>
-      <c r="H6" s="124"/>
-    </row>
-    <row r="7" spans="1:8" ht="31.5">
+      <c r="D6" s="129"/>
+      <c r="E6" s="131"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="131"/>
+      <c r="H6" s="125"/>
+    </row>
+    <row r="7" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B7" s="66" t="s">
         <v>69</v>
       </c>
@@ -23682,7 +25621,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="31.5">
+    <row r="8" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B8" s="68" t="s">
         <v>321</v>
       </c>
@@ -23705,7 +25644,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="31.5">
+    <row r="9" spans="1:8" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B9" s="68" t="s">
         <v>380</v>
       </c>
@@ -23728,7 +25667,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B10" s="68"/>
       <c r="C10" s="46"/>
       <c r="D10" s="46"/>
@@ -23737,7 +25676,7 @@
       <c r="G10" s="48"/>
       <c r="H10" s="69"/>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B11" s="68"/>
       <c r="C11" s="42"/>
       <c r="D11" s="46"/>
@@ -23746,7 +25685,7 @@
       <c r="G11" s="53"/>
       <c r="H11" s="70"/>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B12" s="68"/>
       <c r="C12" s="46"/>
       <c r="D12" s="46"/>
@@ -23755,7 +25694,7 @@
       <c r="G12" s="52"/>
       <c r="H12" s="70"/>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B13" s="68"/>
       <c r="C13" s="42"/>
       <c r="D13" s="54"/>
@@ -23764,7 +25703,7 @@
       <c r="G13" s="48"/>
       <c r="H13" s="71"/>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B14" s="68"/>
       <c r="C14" s="46"/>
       <c r="D14" s="46"/>
@@ -23773,7 +25712,7 @@
       <c r="G14" s="52"/>
       <c r="H14" s="70"/>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B15" s="68"/>
       <c r="C15" s="42"/>
       <c r="D15" s="54"/>
@@ -23782,7 +25721,7 @@
       <c r="G15" s="48"/>
       <c r="H15" s="71"/>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.15">
       <c r="B16" s="68"/>
       <c r="C16" s="46"/>
       <c r="D16" s="46"/>
@@ -23791,7 +25730,7 @@
       <c r="G16" s="52"/>
       <c r="H16" s="69"/>
     </row>
-    <row r="17" spans="2:8">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B17" s="68"/>
       <c r="C17" s="42"/>
       <c r="D17" s="54"/>
@@ -23800,7 +25739,7 @@
       <c r="G17" s="48"/>
       <c r="H17" s="70"/>
     </row>
-    <row r="18" spans="2:8">
+    <row r="18" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B18" s="68"/>
       <c r="C18" s="46"/>
       <c r="D18" s="42"/>
@@ -23809,7 +25748,7 @@
       <c r="G18" s="52"/>
       <c r="H18" s="69"/>
     </row>
-    <row r="19" spans="2:8">
+    <row r="19" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B19" s="68"/>
       <c r="C19" s="42"/>
       <c r="D19" s="46"/>
@@ -23818,7 +25757,7 @@
       <c r="G19" s="48"/>
       <c r="H19" s="70"/>
     </row>
-    <row r="20" spans="2:8">
+    <row r="20" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="46"/>
       <c r="D20" s="42"/>
@@ -23827,7 +25766,7 @@
       <c r="G20" s="52"/>
       <c r="H20" s="69"/>
     </row>
-    <row r="21" spans="2:8">
+    <row r="21" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="42"/>
       <c r="D21" s="46"/>
@@ -23836,7 +25775,7 @@
       <c r="G21" s="48"/>
       <c r="H21" s="70"/>
     </row>
-    <row r="22" spans="2:8">
+    <row r="22" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="46"/>
       <c r="D22" s="46"/>
@@ -23845,7 +25784,7 @@
       <c r="G22" s="52"/>
       <c r="H22" s="69"/>
     </row>
-    <row r="23" spans="2:8">
+    <row r="23" spans="2:8" x14ac:dyDescent="0.15">
       <c r="B23" s="66"/>
       <c r="C23" s="55"/>
       <c r="D23" s="55"/>
@@ -23854,7 +25793,7 @@
       <c r="G23" s="56"/>
       <c r="H23" s="69"/>
     </row>
-    <row r="24" spans="2:8" ht="14.25" thickBot="1">
+    <row r="24" spans="2:8" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B24" s="72"/>
       <c r="C24" s="73"/>
       <c r="D24" s="73"/>
@@ -23884,14 +25823,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="1.625" style="27" customWidth="1"/>
     <col min="2" max="2" width="6.625" style="27" customWidth="1"/>
@@ -24343,7 +26282,7 @@
     <col min="16136" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="6" customHeight="1">
+    <row r="1" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="28"/>
       <c r="B1" s="28"/>
       <c r="C1" s="28"/>
@@ -24352,25 +26291,25 @@
       <c r="F1" s="28"/>
       <c r="G1" s="28"/>
     </row>
-    <row r="2" spans="1:7" ht="17.25">
+    <row r="2" spans="1:7" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="6" customHeight="1">
+    <row r="4" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
       <c r="C4" s="28"/>
     </row>
-    <row r="5" spans="1:7" ht="14.25">
+    <row r="5" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="32" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="14.25" thickBot="1">
+    <row r="6" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="17"/>
     </row>
-    <row r="7" spans="1:7" ht="14.25" thickBot="1">
+    <row r="7" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A7" s="59"/>
       <c r="B7" s="110" t="s">
         <v>58</v>
@@ -24391,7 +26330,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="8" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A8" s="34"/>
       <c r="B8" s="60"/>
       <c r="C8" s="61"/>
@@ -24400,7 +26339,7 @@
       <c r="F8" s="62"/>
       <c r="G8" s="63"/>
     </row>
-    <row r="9" spans="1:7" ht="14.1" customHeight="1">
+    <row r="9" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A9" s="34"/>
       <c r="B9" s="34"/>
       <c r="C9" s="34"/>
@@ -24409,23 +26348,23 @@
       <c r="F9" s="34"/>
       <c r="G9" s="34"/>
     </row>
-    <row r="10" spans="1:7">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.15">
       <c r="A10" s="17"/>
     </row>
-    <row r="11" spans="1:7" ht="6" customHeight="1">
+    <row r="11" spans="1:7" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A11" s="28"/>
       <c r="B11" s="28"/>
       <c r="C11" s="28"/>
     </row>
-    <row r="12" spans="1:7" ht="14.25">
+    <row r="12" spans="1:7" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A12" s="32" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="14.25" thickBot="1">
+    <row r="13" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A13" s="17"/>
     </row>
-    <row r="14" spans="1:7" ht="14.25" thickBot="1">
+    <row r="14" spans="1:7" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="110" t="s">
         <v>58</v>
@@ -24446,7 +26385,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="14.1" customHeight="1">
+    <row r="15" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A15" s="34"/>
       <c r="B15" s="64"/>
       <c r="C15" s="39"/>
@@ -24455,7 +26394,7 @@
       <c r="F15" s="40"/>
       <c r="G15" s="65"/>
     </row>
-    <row r="16" spans="1:7" ht="14.1" customHeight="1">
+    <row r="16" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A16" s="34"/>
       <c r="B16" s="64"/>
       <c r="C16" s="39"/>
@@ -24464,7 +26403,7 @@
       <c r="F16" s="40"/>
       <c r="G16" s="65"/>
     </row>
-    <row r="17" spans="1:7" ht="14.1" customHeight="1">
+    <row r="17" spans="1:7" ht="14.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A17" s="34"/>
       <c r="B17" s="64"/>
       <c r="C17" s="39"/>
@@ -24473,7 +26412,7 @@
       <c r="F17" s="40"/>
       <c r="G17" s="65"/>
     </row>
-    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1">
+    <row r="18" spans="1:7" ht="14.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A18" s="34"/>
       <c r="B18" s="60"/>
       <c r="C18" s="61"/>
@@ -24497,11 +26436,11 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="15"/>
     <col min="2" max="2" width="9.125" style="15" bestFit="1" customWidth="1"/>
@@ -24762,7 +26701,7 @@
     <col min="16133" max="16384" width="9" style="15"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="8.1" customHeight="1">
+    <row r="1" spans="1:9" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -24773,29 +26712,29 @@
       <c r="H1" s="14"/>
       <c r="I1" s="14"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="16" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A3" s="17"/>
     </row>
-    <row r="4" spans="1:9" ht="3.95" customHeight="1">
+    <row r="4" spans="1:9" ht="3.95" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="14"/>
       <c r="B4" s="14"/>
       <c r="C4" s="14"/>
       <c r="D4" s="14"/>
     </row>
-    <row r="5" spans="1:9" ht="14.25">
+    <row r="5" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1">
+    <row r="6" spans="1:9" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A6" s="19"/>
     </row>
-    <row r="7" spans="1:9" ht="14.25" thickBot="1">
+    <row r="7" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B7" s="99" t="s">
         <v>10</v>
       </c>
@@ -24813,7 +26752,7 @@
       <c r="H7" s="101"/>
       <c r="I7" s="102"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="91">
         <v>44771</v>
       </c>
@@ -24831,7 +26770,7 @@
       <c r="H8" s="23"/>
       <c r="I8" s="92"/>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="91">
         <v>44788</v>
       </c>
@@ -24849,7 +26788,7 @@
       <c r="H9" s="23"/>
       <c r="I9" s="92"/>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="91">
         <v>44866</v>
       </c>
@@ -24867,7 +26806,7 @@
       <c r="H10" s="23"/>
       <c r="I10" s="92"/>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="91">
         <v>45344</v>
       </c>
@@ -24885,7 +26824,7 @@
       <c r="H11" s="23"/>
       <c r="I11" s="92"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="91">
         <v>45014</v>
       </c>
@@ -24903,27 +26842,45 @@
       <c r="H12" s="23"/>
       <c r="I12" s="92"/>
     </row>
-    <row r="13" spans="1:9" ht="14.25" thickBot="1">
-      <c r="B13" s="93"/>
-      <c r="C13" s="94"/>
-      <c r="D13" s="95"/>
-      <c r="E13" s="96"/>
-      <c r="F13" s="97"/>
-      <c r="G13" s="97"/>
-      <c r="H13" s="97"/>
-      <c r="I13" s="98"/>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" s="17"/>
-    </row>
-    <row r="15" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
+      <c r="B13" s="91">
+        <v>45384</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>434</v>
+      </c>
+      <c r="D13" s="24" t="s">
+        <v>433</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>435</v>
+      </c>
+      <c r="F13" s="23"/>
+      <c r="G13" s="23"/>
+      <c r="H13" s="23"/>
+      <c r="I13" s="92"/>
+    </row>
+    <row r="14" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="B14" s="93"/>
+      <c r="C14" s="94"/>
+      <c r="D14" s="95"/>
+      <c r="E14" s="96"/>
+      <c r="F14" s="97"/>
+      <c r="G14" s="97"/>
+      <c r="H14" s="97"/>
+      <c r="I14" s="98"/>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="17"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="17"/>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A17" s="17"/>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.15">
+      <c r="A18" s="17"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -24944,7 +26901,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="13" width="6.625" style="27" customWidth="1"/>
     <col min="14" max="256" width="9" style="27"/>
@@ -25076,7 +27033,7 @@
     <col min="16142" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1">
+    <row r="1" spans="1:13" s="15" customFormat="1" ht="8.1" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="14"/>
       <c r="B1" s="14"/>
       <c r="C1" s="14"/>
@@ -25091,156 +27048,156 @@
       <c r="L1" s="14"/>
       <c r="M1" s="14"/>
     </row>
-    <row r="2" spans="1:13" ht="17.25">
+    <row r="2" spans="1:13" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="4" spans="1:13" ht="6" customHeight="1">
+    <row r="3" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="4" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A4" s="28"/>
       <c r="B4" s="28"/>
     </row>
-    <row r="5" spans="1:13" ht="13.5" customHeight="1">
+    <row r="5" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A5" s="29" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:13" ht="13.5" customHeight="1">
+    <row r="6" spans="1:13" ht="13.5" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A6" s="29"/>
     </row>
-    <row r="7" spans="1:13" ht="14.45" customHeight="1">
+    <row r="7" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B7" s="27" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="9" spans="1:13" ht="14.45" customHeight="1">
+    <row r="8" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="9" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B9" s="27" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="10" spans="1:13" ht="14.45" customHeight="1">
+    <row r="10" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B10" s="27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="12" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="13" spans="1:13" ht="6" customHeight="1">
+    <row r="11" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="12" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="13" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A13" s="28"/>
       <c r="B13" s="28"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A14" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A15" s="29"/>
     </row>
-    <row r="16" spans="1:13" ht="14.45" customHeight="1">
+    <row r="16" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B16" s="27" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="17" spans="1:13" ht="14.45" customHeight="1">
+    <row r="17" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B17" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:13" ht="14.45" customHeight="1"/>
-    <row r="19" spans="1:13" ht="14.45" customHeight="1">
+    <row r="18" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="19" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B19" s="27" t="s">
         <v>21</v>
       </c>
       <c r="J19" s="30"/>
     </row>
-    <row r="20" spans="1:13" ht="14.45" customHeight="1">
+    <row r="20" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B20" s="27" t="s">
         <v>327</v>
       </c>
       <c r="J20" s="30"/>
     </row>
-    <row r="21" spans="1:13" ht="14.45" customHeight="1">
+    <row r="21" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J21" s="30"/>
     </row>
-    <row r="22" spans="1:13" ht="14.45" customHeight="1">
+    <row r="22" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J22" s="30"/>
     </row>
-    <row r="23" spans="1:13" ht="6" customHeight="1">
+    <row r="23" spans="1:13" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A23" s="28"/>
       <c r="B23" s="28"/>
     </row>
-    <row r="24" spans="1:13">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.15">
       <c r="A24" s="29" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="1:13" ht="14.45" customHeight="1">
+    <row r="25" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="J25" s="30"/>
     </row>
-    <row r="26" spans="1:13" ht="14.45" customHeight="1">
+    <row r="26" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B26" s="27" t="s">
         <v>23</v>
       </c>
       <c r="M26" s="30"/>
     </row>
-    <row r="27" spans="1:13" ht="14.45" customHeight="1">
+    <row r="27" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B27" s="27" t="s">
         <v>24</v>
       </c>
       <c r="M27" s="30"/>
     </row>
-    <row r="28" spans="1:13" ht="14.45" customHeight="1">
+    <row r="28" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B28" s="27" t="s">
         <v>25</v>
       </c>
       <c r="M28" s="30"/>
     </row>
-    <row r="29" spans="1:13" ht="14.45" customHeight="1">
+    <row r="29" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B29" s="27" t="s">
         <v>26</v>
       </c>
       <c r="M29" s="30"/>
     </row>
-    <row r="30" spans="1:13" ht="14.45" customHeight="1">
+    <row r="30" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B30" s="27" t="s">
         <v>27</v>
       </c>
       <c r="M30" s="30"/>
     </row>
-    <row r="31" spans="1:13" ht="14.45" customHeight="1">
+    <row r="31" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B31" s="27" t="s">
         <v>28</v>
       </c>
       <c r="M31" s="30"/>
     </row>
-    <row r="32" spans="1:13" ht="14.45" customHeight="1">
+    <row r="32" spans="1:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B32" s="27" t="s">
         <v>29</v>
       </c>
       <c r="M32" s="30"/>
     </row>
-    <row r="33" spans="2:13" ht="14.45" customHeight="1">
+    <row r="33" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B33" s="27" t="s">
         <v>30</v>
       </c>
       <c r="M33" s="30"/>
     </row>
-    <row r="34" spans="2:13" ht="14.45" customHeight="1">
+    <row r="34" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="B34" s="27" t="s">
         <v>31</v>
       </c>
       <c r="M34" s="30"/>
     </row>
-    <row r="35" spans="2:13" ht="14.45" customHeight="1">
+    <row r="35" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M35" s="30"/>
     </row>
-    <row r="36" spans="2:13" ht="14.45" customHeight="1">
+    <row r="36" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M36" s="30"/>
     </row>
-    <row r="37" spans="2:13" ht="14.45" customHeight="1">
+    <row r="37" spans="2:13" ht="14.45" customHeight="1" x14ac:dyDescent="0.15">
       <c r="M37" s="30"/>
     </row>
   </sheetData>
@@ -25258,13 +27215,14 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet4">
+    <tabColor rgb="FFFF66FF"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F21"/>
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="80" zoomScaleSheetLayoutView="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="2.75" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="3" width="2.75" style="82"/>
     <col min="4" max="4" width="22.125" style="82" customWidth="1"/>
@@ -25273,7 +27231,7 @@
     <col min="7" max="16384" width="2.75" style="82"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="6" customHeight="1">
+    <row r="1" spans="1:6" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="81"/>
       <c r="B1" s="81"/>
       <c r="C1" s="81"/>
@@ -25281,7 +27239,7 @@
       <c r="E1" s="81"/>
       <c r="F1" s="81"/>
     </row>
-    <row r="2" spans="1:6" ht="17.25">
+    <row r="2" spans="1:6" ht="17.25" x14ac:dyDescent="0.15">
       <c r="A2" s="80" t="s">
         <v>70</v>
       </c>
@@ -25291,7 +27249,7 @@
       <c r="E2" s="79"/>
       <c r="F2" s="79"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="79"/>
       <c r="B3" s="79"/>
       <c r="C3" s="83"/>
@@ -25299,7 +27257,7 @@
       <c r="E3" s="83"/>
       <c r="F3" s="83"/>
     </row>
-    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25">
+    <row r="4" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
       <c r="A4" s="84"/>
       <c r="B4" s="84"/>
       <c r="C4" s="84"/>
@@ -25309,7 +27267,7 @@
       <c r="E4" s="84"/>
       <c r="F4" s="84"/>
     </row>
-    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="5" spans="1:6" s="85" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.2">
       <c r="A5" s="84"/>
       <c r="B5" s="84"/>
       <c r="C5" s="84"/>
@@ -25317,7 +27275,7 @@
       <c r="E5" s="84"/>
       <c r="F5" s="84"/>
     </row>
-    <row r="6" spans="1:6" s="85" customFormat="1" ht="12">
+    <row r="6" spans="1:6" s="85" customFormat="1" ht="12" x14ac:dyDescent="0.15">
       <c r="A6" s="84"/>
       <c r="B6" s="84"/>
       <c r="C6" s="84"/>
@@ -25329,7 +27287,7 @@
       </c>
       <c r="F6" s="84"/>
     </row>
-    <row r="7" spans="1:6" s="85" customFormat="1">
+    <row r="7" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="84"/>
       <c r="B7" s="84"/>
       <c r="C7" s="84"/>
@@ -25341,7 +27299,7 @@
       </c>
       <c r="F7" s="84"/>
     </row>
-    <row r="8" spans="1:6" s="85" customFormat="1">
+    <row r="8" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="84"/>
       <c r="B8" s="84"/>
       <c r="C8" s="84"/>
@@ -25353,7 +27311,7 @@
       </c>
       <c r="F8" s="84"/>
     </row>
-    <row r="9" spans="1:6" s="85" customFormat="1">
+    <row r="9" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="84"/>
       <c r="B9" s="84"/>
       <c r="C9" s="84"/>
@@ -25365,7 +27323,7 @@
       </c>
       <c r="F9" s="84"/>
     </row>
-    <row r="10" spans="1:6" s="85" customFormat="1">
+    <row r="10" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="84"/>
       <c r="B10" s="84"/>
       <c r="C10" s="84"/>
@@ -25377,7 +27335,7 @@
       </c>
       <c r="F10" s="84"/>
     </row>
-    <row r="11" spans="1:6" s="85" customFormat="1">
+    <row r="11" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -25389,7 +27347,7 @@
       </c>
       <c r="F11" s="84"/>
     </row>
-    <row r="12" spans="1:6" s="85" customFormat="1">
+    <row r="12" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A12" s="84"/>
       <c r="B12" s="84"/>
       <c r="C12" s="84"/>
@@ -25401,7 +27359,7 @@
       </c>
       <c r="F12" s="84"/>
     </row>
-    <row r="13" spans="1:6" s="85" customFormat="1">
+    <row r="13" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A13" s="84"/>
       <c r="B13" s="84"/>
       <c r="C13" s="84"/>
@@ -25413,7 +27371,7 @@
       </c>
       <c r="F13" s="84"/>
     </row>
-    <row r="14" spans="1:6" s="85" customFormat="1">
+    <row r="14" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A14" s="84"/>
       <c r="B14" s="84"/>
       <c r="C14" s="84"/>
@@ -25425,7 +27383,7 @@
       </c>
       <c r="F14" s="84"/>
     </row>
-    <row r="15" spans="1:6" s="85" customFormat="1">
+    <row r="15" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A15" s="84"/>
       <c r="B15" s="84"/>
       <c r="C15" s="84"/>
@@ -25437,7 +27395,7 @@
       </c>
       <c r="F15" s="84"/>
     </row>
-    <row r="16" spans="1:6" s="85" customFormat="1">
+    <row r="16" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A16" s="84"/>
       <c r="B16" s="84"/>
       <c r="C16" s="84"/>
@@ -25449,7 +27407,7 @@
       </c>
       <c r="F16" s="84"/>
     </row>
-    <row r="17" spans="1:6" s="85" customFormat="1">
+    <row r="17" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A17" s="84"/>
       <c r="B17" s="84"/>
       <c r="C17" s="84"/>
@@ -25461,29 +27419,41 @@
       </c>
       <c r="F17" s="84"/>
     </row>
-    <row r="18" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1">
-      <c r="A18" s="88"/>
+    <row r="18" spans="1:6" s="85" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="84"/>
-      <c r="D18" s="89"/>
-      <c r="E18" s="90"/>
+      <c r="D18" s="118" t="s">
+        <v>436</v>
+      </c>
+      <c r="E18" s="121" t="s">
+        <v>448</v>
+      </c>
       <c r="F18" s="84"/>
     </row>
-    <row r="19" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A19" s="84"/>
-      <c r="B19" s="88"/>
-      <c r="C19" s="88"/>
-      <c r="D19" s="88"/>
-      <c r="E19" s="88"/>
-      <c r="F19" s="88"/>
-    </row>
-    <row r="20" spans="1:6" s="85" customFormat="1" ht="11.25">
-      <c r="A20" s="88"/>
+    <row r="19" spans="1:6" s="85" customFormat="1" ht="12" thickBot="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="88"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="84"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="90"/>
+      <c r="F19" s="84"/>
+    </row>
+    <row r="20" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A20" s="84"/>
       <c r="B20" s="88"/>
       <c r="C20" s="88"/>
       <c r="D20" s="88"/>
       <c r="E20" s="88"/>
       <c r="F20" s="88"/>
+    </row>
+    <row r="21" spans="1:6" s="85" customFormat="1" ht="11.25" x14ac:dyDescent="0.15">
+      <c r="A21" s="88"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="88"/>
+      <c r="E21" s="88"/>
+      <c r="F21" s="88"/>
     </row>
   </sheetData>
   <phoneticPr fontId="3"/>
@@ -25499,6 +27469,7 @@
     <hyperlink ref="D15" location="'テスト仕様_テスト結果(テスト・シナリオ9)'!A1" display="シナリオ9"/>
     <hyperlink ref="D16" location="'テスト仕様_テスト結果(テスト・シナリオ10)'!A1" display="シナリオ10"/>
     <hyperlink ref="D17" location="'テスト仕様_テスト結果(テスト・シナリオ11)'!A1" display="シナリオ11"/>
+    <hyperlink ref="D18" location="'テスト仕様_テスト結果(テスト・シナリオ12)'!A1" display="シナリオ12"/>
   </hyperlinks>
   <pageMargins left="0.70866141732283472" right="0.70866141732283472" top="0.74803149606299213" bottom="0.74803149606299213" header="0.31496062992125984" footer="0.31496062992125984"/>
   <pageSetup paperSize="9" scale="97" fitToHeight="0" orientation="landscape" cellComments="asDisplayed" r:id="rId1"/>
@@ -25518,7 +27489,7 @@
   <sheetViews>
     <sheetView showGridLines="0" view="pageBreakPreview" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="20.625" style="27" customWidth="1"/>
@@ -25778,7 +27749,7 @@
     <col min="16132" max="16384" width="9" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -25789,99 +27760,99 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="14.25">
+    <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A2" s="32" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="33"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="33" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="33" t="s">
         <v>292</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B9" s="33" t="s">
         <v>296</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B10" s="33" t="s">
         <v>293</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B11" s="33"/>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B12" s="33" t="s">
         <v>294</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B13" s="33" t="s">
         <v>295</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B14" s="33"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B15" s="33"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B16" s="33"/>
     </row>
-    <row r="17" spans="2:3">
+    <row r="17" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B17" s="33"/>
     </row>
-    <row r="18" spans="2:3">
+    <row r="18" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B18" s="33"/>
     </row>
-    <row r="19" spans="2:3">
+    <row r="19" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B19" s="33"/>
     </row>
-    <row r="20" spans="2:3">
+    <row r="20" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B20" s="33"/>
     </row>
-    <row r="21" spans="2:3">
+    <row r="21" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B21" s="33"/>
     </row>
-    <row r="22" spans="2:3">
+    <row r="22" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B22" s="33"/>
     </row>
-    <row r="23" spans="2:3">
+    <row r="23" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B23" s="33"/>
     </row>
-    <row r="24" spans="2:3">
+    <row r="24" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B24" s="33"/>
     </row>
-    <row r="25" spans="2:3">
+    <row r="25" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B25" s="33"/>
     </row>
-    <row r="26" spans="2:3">
+    <row r="26" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B26" s="33"/>
     </row>
-    <row r="27" spans="2:3">
+    <row r="27" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B27" s="33"/>
     </row>
-    <row r="28" spans="2:3">
+    <row r="28" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B28" s="34"/>
       <c r="C28" s="34"/>
     </row>
-    <row r="29" spans="2:3">
+    <row r="29" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B29" s="34"/>
       <c r="C29" s="34"/>
     </row>
@@ -25906,7 +27877,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -26486,7 +28457,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -26497,35 +28468,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -26551,7 +28522,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>77</v>
@@ -26578,7 +28549,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="42">
+    <row r="12" spans="1:9" ht="42" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64"/>
       <c r="C12" s="51"/>
@@ -26599,7 +28570,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>98</v>
@@ -26624,7 +28595,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>99</v>
@@ -26649,7 +28620,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="15" spans="1:9" ht="21">
+    <row r="15" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64" t="s">
         <v>101</v>
@@ -26674,7 +28645,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="16" spans="1:9" ht="21">
+    <row r="16" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64" t="s">
         <v>105</v>
@@ -26699,7 +28670,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="21">
+    <row r="17" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B17" s="64" t="s">
         <v>109</v>
       </c>
@@ -26723,7 +28694,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64" t="s">
         <v>110</v>
       </c>
@@ -26747,7 +28718,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="19" spans="1:9" ht="52.5">
+    <row r="19" spans="1:9" ht="52.5" x14ac:dyDescent="0.15">
       <c r="B19" s="64" t="s">
         <v>111</v>
       </c>
@@ -26771,7 +28742,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="20" spans="1:9" ht="31.5">
+    <row r="20" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B20" s="68" t="s">
         <v>107</v>
       </c>
@@ -26797,7 +28768,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="21" spans="1:9" ht="21">
+    <row r="21" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -26817,7 +28788,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="22" spans="1:9" ht="31.5">
+    <row r="22" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="B22" s="68" t="s">
         <v>307</v>
       </c>
@@ -26843,7 +28814,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="23" spans="1:9" ht="21">
+    <row r="23" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -26863,7 +28834,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="24" spans="1:9" ht="21">
+    <row r="24" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="B24" s="68" t="s">
         <v>276</v>
       </c>
@@ -26889,7 +28860,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -26900,7 +28871,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -26911,7 +28882,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -26921,7 +28892,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -26931,7 +28902,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -26942,7 +28913,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -26953,7 +28924,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -26963,7 +28934,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -26973,7 +28944,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -26983,7 +28954,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -26993,7 +28964,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -27003,7 +28974,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -27013,7 +28984,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -27023,7 +28994,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -27033,7 +29004,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -27043,7 +29014,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -27053,7 +29024,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -27063,7 +29034,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -27073,7 +29044,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -27083,7 +29054,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -27093,7 +29064,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>332</v>
       </c>
@@ -27105,7 +29076,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -27115,7 +29086,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -27125,7 +29096,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -27135,7 +29106,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -27171,7 +29142,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -27751,7 +29722,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -27762,35 +29733,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>267</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -27816,7 +29787,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="21">
+    <row r="11" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>116</v>
@@ -27843,7 +29814,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>117</v>
@@ -27870,7 +29841,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>279</v>
@@ -27897,7 +29868,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64"/>
       <c r="C14" s="51"/>
@@ -27908,7 +29879,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="78"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64"/>
       <c r="C15" s="51"/>
@@ -27919,7 +29890,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64"/>
       <c r="C16" s="51"/>
@@ -27930,7 +29901,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -27940,7 +29911,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -27950,7 +29921,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -27960,7 +29931,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -27970,7 +29941,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -27980,7 +29951,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -27990,7 +29961,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -28000,7 +29971,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -28010,7 +29981,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -28021,7 +29992,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -28032,7 +30003,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -28042,7 +30013,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -28052,7 +30023,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -28063,7 +30034,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -28074,7 +30045,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -28084,7 +30055,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -28094,7 +30065,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -28104,7 +30075,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -28114,7 +30085,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -28124,7 +30095,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -28134,7 +30105,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -28144,7 +30115,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -28154,7 +30125,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -28164,7 +30135,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -28174,7 +30145,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -28184,7 +30155,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -28194,7 +30165,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -28204,7 +30175,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -28214,7 +30185,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>333</v>
       </c>
@@ -28226,7 +30197,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -28236,7 +30207,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -28246,7 +30217,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -28256,7 +30227,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -28292,7 +30263,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -28872,7 +30843,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -28883,35 +30854,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>268</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -28937,7 +30908,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>122</v>
@@ -28964,7 +30935,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="21">
+    <row r="12" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>123</v>
@@ -28991,7 +30962,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="21">
+    <row r="13" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>281</v>
@@ -29018,7 +30989,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64"/>
       <c r="C14" s="51"/>
@@ -29029,7 +31000,7 @@
       <c r="H14" s="39"/>
       <c r="I14" s="78"/>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64"/>
       <c r="C15" s="51"/>
@@ -29040,7 +31011,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64"/>
       <c r="C16" s="51"/>
@@ -29051,7 +31022,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -29061,7 +31032,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -29071,7 +31042,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -29081,7 +31052,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -29091,7 +31062,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -29101,7 +31072,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -29111,7 +31082,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -29121,7 +31092,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -29131,7 +31102,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -29142,7 +31113,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -29153,7 +31124,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -29163,7 +31134,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -29173,7 +31144,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -29184,7 +31155,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -29195,7 +31166,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -29205,7 +31176,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -29215,7 +31186,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -29225,7 +31196,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -29235,7 +31206,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -29245,7 +31216,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -29255,7 +31226,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -29265,7 +31236,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -29275,7 +31246,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -29285,7 +31256,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -29295,7 +31266,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -29305,7 +31276,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -29315,7 +31286,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -29325,7 +31296,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -29335,7 +31306,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>334</v>
       </c>
@@ -29347,7 +31318,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -29357,7 +31328,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -29367,7 +31338,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -29377,7 +31348,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
@@ -29413,7 +31384,7 @@
       <selection pane="bottomLeft" activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="3.125" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.75" style="27" customWidth="1"/>
@@ -29993,7 +31964,7 @@
     <col min="16138" max="16384" width="8.875" style="27"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="6" customHeight="1">
+    <row r="1" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="31"/>
       <c r="B1" s="31"/>
       <c r="C1" s="31"/>
@@ -30004,35 +31975,35 @@
       <c r="H1" s="35"/>
       <c r="I1" s="35"/>
     </row>
-    <row r="2" spans="1:9" ht="17.25">
+    <row r="2" spans="1:9" ht="17.25" x14ac:dyDescent="0.2">
       <c r="A2" s="26" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B4" s="33" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B5" s="25" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B6" s="25"/>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B8" s="36" t="s">
         <v>269</v>
       </c>
     </row>
-    <row r="9" spans="1:9" ht="14.25" thickBot="1">
+    <row r="9" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B9" s="25" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="10" spans="1:9" ht="14.25" thickBot="1">
+    <row r="10" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B10" s="105" t="s">
         <v>39</v>
       </c>
@@ -30058,7 +32029,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="11" spans="1:9" ht="31.5">
+    <row r="11" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A11" s="37"/>
       <c r="B11" s="64" t="s">
         <v>124</v>
@@ -30085,7 +32056,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="12" spans="1:9" ht="31.5">
+    <row r="12" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A12" s="37"/>
       <c r="B12" s="64" t="s">
         <v>125</v>
@@ -30112,7 +32083,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="13" spans="1:9" ht="31.5">
+    <row r="13" spans="1:9" ht="31.5" x14ac:dyDescent="0.15">
       <c r="A13" s="37"/>
       <c r="B13" s="64" t="s">
         <v>126</v>
@@ -30139,7 +32110,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="14" spans="1:9" ht="21">
+    <row r="14" spans="1:9" ht="21" x14ac:dyDescent="0.15">
       <c r="A14" s="37"/>
       <c r="B14" s="64" t="s">
         <v>282</v>
@@ -30166,7 +32137,7 @@
         <v>44788</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A15" s="37"/>
       <c r="B15" s="64"/>
       <c r="C15" s="51"/>
@@ -30177,7 +32148,7 @@
       <c r="H15" s="57"/>
       <c r="I15" s="76"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A16" s="37"/>
       <c r="B16" s="64"/>
       <c r="C16" s="51"/>
@@ -30188,7 +32159,7 @@
       <c r="H16" s="57"/>
       <c r="I16" s="76"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B17" s="64"/>
       <c r="C17" s="51"/>
       <c r="D17" s="51"/>
@@ -30198,7 +32169,7 @@
       <c r="H17" s="46"/>
       <c r="I17" s="76"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B18" s="64"/>
       <c r="C18" s="46"/>
       <c r="D18" s="46"/>
@@ -30208,7 +32179,7 @@
       <c r="H18" s="46"/>
       <c r="I18" s="76"/>
     </row>
-    <row r="19" spans="1:9">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B19" s="64"/>
       <c r="C19" s="51"/>
       <c r="D19" s="51"/>
@@ -30218,7 +32189,7 @@
       <c r="H19" s="46"/>
       <c r="I19" s="76"/>
     </row>
-    <row r="20" spans="1:9">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B20" s="68"/>
       <c r="C20" s="51"/>
       <c r="D20" s="51"/>
@@ -30228,7 +32199,7 @@
       <c r="H20" s="46"/>
       <c r="I20" s="76"/>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B21" s="68"/>
       <c r="C21" s="51"/>
       <c r="D21" s="51"/>
@@ -30238,7 +32209,7 @@
       <c r="H21" s="46"/>
       <c r="I21" s="76"/>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B22" s="68"/>
       <c r="C22" s="51"/>
       <c r="D22" s="51"/>
@@ -30248,7 +32219,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="76"/>
     </row>
-    <row r="23" spans="1:9">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B23" s="68"/>
       <c r="C23" s="51"/>
       <c r="D23" s="51"/>
@@ -30258,7 +32229,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="76"/>
     </row>
-    <row r="24" spans="1:9">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B24" s="68"/>
       <c r="C24" s="51"/>
       <c r="D24" s="51"/>
@@ -30268,7 +32239,7 @@
       <c r="H24" s="57"/>
       <c r="I24" s="76"/>
     </row>
-    <row r="25" spans="1:9">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A25" s="37"/>
       <c r="B25" s="68"/>
       <c r="C25" s="46"/>
@@ -30279,7 +32250,7 @@
       <c r="H25" s="57"/>
       <c r="I25" s="76"/>
     </row>
-    <row r="26" spans="1:9">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A26" s="37"/>
       <c r="B26" s="68"/>
       <c r="C26" s="51"/>
@@ -30290,7 +32261,7 @@
       <c r="H26" s="57"/>
       <c r="I26" s="76"/>
     </row>
-    <row r="27" spans="1:9">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B27" s="68"/>
       <c r="C27" s="51"/>
       <c r="D27" s="51"/>
@@ -30300,7 +32271,7 @@
       <c r="H27" s="46"/>
       <c r="I27" s="76"/>
     </row>
-    <row r="28" spans="1:9">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B28" s="68"/>
       <c r="C28" s="51"/>
       <c r="D28" s="51"/>
@@ -30310,7 +32281,7 @@
       <c r="H28" s="57"/>
       <c r="I28" s="76"/>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A29" s="37"/>
       <c r="B29" s="68"/>
       <c r="C29" s="46"/>
@@ -30321,7 +32292,7 @@
       <c r="H29" s="57"/>
       <c r="I29" s="76"/>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.15">
       <c r="A30" s="37"/>
       <c r="B30" s="68"/>
       <c r="C30" s="51"/>
@@ -30332,7 +32303,7 @@
       <c r="H30" s="57"/>
       <c r="I30" s="76"/>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B31" s="68"/>
       <c r="C31" s="51"/>
       <c r="D31" s="51"/>
@@ -30342,7 +32313,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="76"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B32" s="68"/>
       <c r="C32" s="51"/>
       <c r="D32" s="51"/>
@@ -30352,7 +32323,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="76"/>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B33" s="68"/>
       <c r="C33" s="46"/>
       <c r="D33" s="46"/>
@@ -30362,7 +32333,7 @@
       <c r="H33" s="46"/>
       <c r="I33" s="76"/>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B34" s="114"/>
       <c r="C34" s="51"/>
       <c r="D34" s="51"/>
@@ -30372,7 +32343,7 @@
       <c r="H34" s="55"/>
       <c r="I34" s="116"/>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B35" s="114"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
@@ -30382,7 +32353,7 @@
       <c r="H35" s="55"/>
       <c r="I35" s="76"/>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B36" s="114"/>
       <c r="C36" s="51"/>
       <c r="D36" s="51"/>
@@ -30392,7 +32363,7 @@
       <c r="H36" s="55"/>
       <c r="I36" s="116"/>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B37" s="114"/>
       <c r="C37" s="46"/>
       <c r="D37" s="46"/>
@@ -30402,7 +32373,7 @@
       <c r="H37" s="55"/>
       <c r="I37" s="76"/>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B38" s="114"/>
       <c r="C38" s="55"/>
       <c r="D38" s="55"/>
@@ -30412,7 +32383,7 @@
       <c r="H38" s="55"/>
       <c r="I38" s="76"/>
     </row>
-    <row r="39" spans="1:9" ht="14.25" thickBot="1">
+    <row r="39" spans="1:9" ht="14.25" thickBot="1" x14ac:dyDescent="0.2">
       <c r="B39" s="72"/>
       <c r="C39" s="47"/>
       <c r="D39" s="47"/>
@@ -30422,7 +32393,7 @@
       <c r="H39" s="47"/>
       <c r="I39" s="77"/>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B40" s="34"/>
       <c r="C40" s="34"/>
       <c r="D40" s="34"/>
@@ -30432,7 +32403,7 @@
       <c r="H40" s="34"/>
       <c r="I40" s="34"/>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B41" s="34"/>
       <c r="C41" s="34"/>
       <c r="D41" s="34"/>
@@ -30442,7 +32413,7 @@
       <c r="H41" s="34"/>
       <c r="I41" s="34"/>
     </row>
-    <row r="42" spans="1:9" ht="6" customHeight="1">
+    <row r="42" spans="1:9" ht="6" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A42" s="28"/>
       <c r="B42" s="28"/>
       <c r="C42" s="28"/>
@@ -30452,7 +32423,7 @@
       <c r="G42" s="34"/>
       <c r="H42" s="34"/>
     </row>
-    <row r="43" spans="1:9" ht="14.25">
+    <row r="43" spans="1:9" ht="14.25" x14ac:dyDescent="0.15">
       <c r="A43" s="32" t="s">
         <v>47</v>
       </c>
@@ -30462,7 +32433,7 @@
       <c r="H43" s="34"/>
       <c r="I43" s="34"/>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B44" s="34"/>
       <c r="C44" s="34"/>
       <c r="D44" s="34"/>
@@ -30472,7 +32443,7 @@
       <c r="H44" s="34"/>
       <c r="I44" s="34"/>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B45" s="38" t="s">
         <v>335</v>
       </c>
@@ -30484,7 +32455,7 @@
       <c r="H45" s="34"/>
       <c r="I45" s="34"/>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B46" s="34"/>
       <c r="C46" s="34"/>
       <c r="D46" s="34"/>
@@ -30494,7 +32465,7 @@
       <c r="H46" s="34"/>
       <c r="I46" s="34"/>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B47" s="34"/>
       <c r="C47" s="34"/>
       <c r="D47" s="34"/>
@@ -30504,7 +32475,7 @@
       <c r="H47" s="34"/>
       <c r="I47" s="34"/>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.15">
       <c r="B48" s="34"/>
       <c r="C48" s="34"/>
       <c r="D48" s="34"/>
@@ -30514,7 +32485,7 @@
       <c r="H48" s="34"/>
       <c r="I48" s="34"/>
     </row>
-    <row r="49" spans="2:9">
+    <row r="49" spans="2:9" x14ac:dyDescent="0.15">
       <c r="B49" s="34"/>
       <c r="C49" s="34"/>
       <c r="D49" s="34"/>
